--- a/EO-EC-TA-full/Fp1-full.xlsx
+++ b/EO-EC-TA-full/Fp1-full.xlsx
@@ -8,7 +8,7 @@
       <x15ac:absPath xmlns:x15ac="http://schemas.microsoft.com/office/spreadsheetml/2010/11/ac" url="D:\IIT\Year 2 Sem 2\SDGP\ML-github-component\Intellignosis\EO-EC-TA-full\"/>
     </mc:Choice>
   </mc:AlternateContent>
-  <xr:revisionPtr revIDLastSave="0" documentId="8_{5F7143E1-567A-4A0D-B12D-EDB2812904FD}" xr6:coauthVersionLast="47" xr6:coauthVersionMax="47" xr10:uidLastSave="{00000000-0000-0000-0000-000000000000}"/>
+  <xr:revisionPtr revIDLastSave="0" documentId="13_ncr:1_{E57A85C5-F875-4125-9012-9BEBF72C68EA}" xr6:coauthVersionLast="47" xr6:coauthVersionMax="47" xr10:uidLastSave="{00000000-0000-0000-0000-000000000000}"/>
   <bookViews>
     <workbookView xWindow="-108" yWindow="-108" windowWidth="23256" windowHeight="12576" xr2:uid="{92699B8B-5870-4E90-901B-9FD121278801}"/>
   </bookViews>
@@ -485,8 +485,8 @@
 <worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" xmlns:xr2="http://schemas.microsoft.com/office/spreadsheetml/2015/revision2" xmlns:xr3="http://schemas.microsoft.com/office/spreadsheetml/2016/revision3" mc:Ignorable="x14ac xr xr2 xr3" xr:uid="{22B021A7-389D-4B49-A729-BA4AE00211E1}">
   <dimension ref="A1:L145"/>
   <sheetViews>
-    <sheetView tabSelected="1" topLeftCell="A106" workbookViewId="0">
-      <selection activeCell="A119" sqref="A119:L145"/>
+    <sheetView tabSelected="1" zoomScale="94" zoomScaleNormal="94" workbookViewId="0">
+      <selection activeCell="N10" sqref="N10"/>
     </sheetView>
   </sheetViews>
   <sheetFormatPr defaultRowHeight="14.4" x14ac:dyDescent="0.3"/>
@@ -531,22 +531,22 @@
         <v>11</v>
       </c>
       <c r="B2" s="3">
-        <v>19.023542523371169</v>
+        <v>9.7647150860603578</v>
       </c>
       <c r="C2" s="3">
-        <v>4.2205333714439952</v>
+        <v>5.8314295949974602</v>
       </c>
       <c r="D2" s="3">
-        <v>3.2296390363019158</v>
+        <v>5.7234853997570427</v>
       </c>
       <c r="E2" s="3">
-        <v>2.9450579995370458</v>
+        <v>2.7470097138513512</v>
       </c>
       <c r="F2" s="3">
-        <v>2.5400468921915791</v>
+        <v>3.289163418341789</v>
       </c>
       <c r="G2">
-        <v>31.958819822845701</v>
+        <v>27.355803213007999</v>
       </c>
       <c r="H2">
         <v>0.25</v>
@@ -555,7 +555,7 @@
         <v>0</v>
       </c>
       <c r="J2">
-        <v>3</v>
+        <v>7</v>
       </c>
       <c r="K2" s="3">
         <v>0</v>
@@ -569,22 +569,22 @@
         <v>11</v>
       </c>
       <c r="B3" s="3">
-        <v>63.826654814487839</v>
+        <v>19.023542523371169</v>
       </c>
       <c r="C3" s="3">
-        <v>16.581230495962771</v>
+        <v>4.2205333714439952</v>
       </c>
       <c r="D3" s="3">
-        <v>39.157731977945282</v>
+        <v>3.2296390363019158</v>
       </c>
       <c r="E3" s="3">
-        <v>4.0971495714706876</v>
+        <v>2.9450579995370458</v>
       </c>
       <c r="F3" s="3">
-        <v>3.0702725925128949</v>
+        <v>2.5400468921915791</v>
       </c>
       <c r="G3">
-        <v>126.7330394523795</v>
+        <v>31.958819822845701</v>
       </c>
       <c r="H3">
         <v>0.25</v>
@@ -593,7 +593,7 @@
         <v>0</v>
       </c>
       <c r="J3">
-        <v>2</v>
+        <v>3</v>
       </c>
       <c r="K3" s="3">
         <v>0</v>
@@ -607,22 +607,22 @@
         <v>11</v>
       </c>
       <c r="B4" s="3">
-        <v>23.194658003641251</v>
+        <v>23.942303927050141</v>
       </c>
       <c r="C4" s="3">
-        <v>12.373684849960259</v>
+        <v>6.1656064087007643</v>
       </c>
       <c r="D4" s="3">
-        <v>51.193115506632957</v>
+        <v>4.7252244189744887</v>
       </c>
       <c r="E4" s="3">
-        <v>5.954576152141609</v>
+        <v>3.0832041336755869</v>
       </c>
       <c r="F4" s="3">
-        <v>3.0881357688222542</v>
+        <v>3.5329235761986402</v>
       </c>
       <c r="G4">
-        <v>95.804170281198324</v>
+        <v>41.449262464599613</v>
       </c>
       <c r="H4">
         <v>0.25</v>
@@ -631,7 +631,7 @@
         <v>0</v>
       </c>
       <c r="J4">
-        <v>17</v>
+        <v>16</v>
       </c>
       <c r="K4" s="3">
         <v>0</v>
@@ -645,22 +645,22 @@
         <v>11</v>
       </c>
       <c r="B5" s="3">
-        <v>19.74689347713964</v>
+        <v>30.747776130311639</v>
       </c>
       <c r="C5" s="3">
-        <v>55.471943463968422</v>
+        <v>6.262772590814933</v>
       </c>
       <c r="D5" s="3">
-        <v>6.9908181878684204</v>
+        <v>6.8269763952572946</v>
       </c>
       <c r="E5" s="3">
-        <v>3.2200997366292139</v>
+        <v>2.971737058300747</v>
       </c>
       <c r="F5" s="3">
-        <v>3.1377568565688891</v>
+        <v>4.3384367458550859</v>
       </c>
       <c r="G5">
-        <v>88.567511722174572</v>
+        <v>51.147698920539703</v>
       </c>
       <c r="H5">
         <v>0.25</v>
@@ -669,7 +669,7 @@
         <v>0</v>
       </c>
       <c r="J5">
-        <v>24</v>
+        <v>8</v>
       </c>
       <c r="K5" s="3">
         <v>0</v>
@@ -683,22 +683,22 @@
         <v>11</v>
       </c>
       <c r="B6" s="3">
-        <v>9.7647150860603578</v>
+        <v>37.690913009940147</v>
       </c>
       <c r="C6" s="3">
-        <v>5.8314295949974602</v>
+        <v>6.0734304572686861</v>
       </c>
       <c r="D6" s="3">
-        <v>5.7234853997570427</v>
+        <v>3.2749602455053219</v>
       </c>
       <c r="E6" s="3">
-        <v>2.7470097138513512</v>
+        <v>2.7517068665190298</v>
       </c>
       <c r="F6" s="3">
-        <v>3.289163418341789</v>
-      </c>
-      <c r="G6">
-        <v>27.355803213007999</v>
+        <v>4.8179464204956997</v>
+      </c>
+      <c r="G6" s="4">
+        <v>54.608956999728868</v>
       </c>
       <c r="H6">
         <v>0.25</v>
@@ -707,13 +707,13 @@
         <v>0</v>
       </c>
       <c r="J6">
-        <v>7</v>
+        <v>12</v>
       </c>
       <c r="K6" s="3">
         <v>0</v>
       </c>
       <c r="L6" t="s">
-        <v>12</v>
+        <v>13</v>
       </c>
     </row>
     <row r="7" spans="1:12" x14ac:dyDescent="0.3">
@@ -721,22 +721,22 @@
         <v>11</v>
       </c>
       <c r="B7" s="3">
-        <v>11.6124755411164</v>
+        <v>35.604125020227222</v>
       </c>
       <c r="C7" s="3">
-        <v>57.541641866882713</v>
+        <v>4.903311356164421</v>
       </c>
       <c r="D7" s="3">
-        <v>21.56514960162243</v>
+        <v>2.9216354424095732</v>
       </c>
       <c r="E7" s="3">
-        <v>5.9751220093888797</v>
+        <v>5.08330826920443</v>
       </c>
       <c r="F7" s="3">
-        <v>3.4868319025340222</v>
-      </c>
-      <c r="G7">
-        <v>100.18122092154439</v>
+        <v>9.6262273195036023</v>
+      </c>
+      <c r="G7" s="4">
+        <v>58.138607407509262</v>
       </c>
       <c r="H7">
         <v>0.25</v>
@@ -745,13 +745,13 @@
         <v>0</v>
       </c>
       <c r="J7">
-        <v>5</v>
+        <v>11</v>
       </c>
       <c r="K7" s="3">
         <v>0</v>
       </c>
       <c r="L7" t="s">
-        <v>12</v>
+        <v>13</v>
       </c>
     </row>
     <row r="8" spans="1:12" x14ac:dyDescent="0.3">
@@ -759,22 +759,22 @@
         <v>11</v>
       </c>
       <c r="B8" s="3">
-        <v>21.204022083403441</v>
+        <v>19.404406454561979</v>
       </c>
       <c r="C8" s="3">
-        <v>62.753814354173763</v>
+        <v>35.93858996009947</v>
       </c>
       <c r="D8" s="3">
-        <v>3.5781453423056222</v>
+        <v>2.1709078707708098</v>
       </c>
       <c r="E8" s="3">
-        <v>4.2754824039758024</v>
+        <v>3.398967914731768</v>
       </c>
       <c r="F8" s="3">
-        <v>3.490393245803372</v>
+        <v>3.772206532321404</v>
       </c>
       <c r="G8">
-        <v>95.301857429662007</v>
+        <v>64.685078732485437</v>
       </c>
       <c r="H8">
         <v>0.25</v>
@@ -783,7 +783,7 @@
         <v>0</v>
       </c>
       <c r="J8">
-        <v>23</v>
+        <v>4</v>
       </c>
       <c r="K8" s="3">
         <v>0</v>
@@ -797,22 +797,22 @@
         <v>11</v>
       </c>
       <c r="B9" s="3">
-        <v>23.942303927050141</v>
+        <v>13.42082617778194</v>
       </c>
       <c r="C9" s="3">
-        <v>6.1656064087007643</v>
+        <v>47.482892732435268</v>
       </c>
       <c r="D9" s="3">
-        <v>4.7252244189744887</v>
+        <v>16.81609686153913</v>
       </c>
       <c r="E9" s="3">
-        <v>3.0832041336755869</v>
+        <v>5.9640887541074621</v>
       </c>
       <c r="F9" s="3">
-        <v>3.5329235761986402</v>
+        <v>4.242175089496671</v>
       </c>
       <c r="G9">
-        <v>41.449262464599613</v>
+        <v>87.926079615360493</v>
       </c>
       <c r="H9">
         <v>0.25</v>
@@ -821,7 +821,7 @@
         <v>0</v>
       </c>
       <c r="J9">
-        <v>16</v>
+        <v>13</v>
       </c>
       <c r="K9" s="3">
         <v>0</v>
@@ -835,22 +835,22 @@
         <v>11</v>
       </c>
       <c r="B10" s="3">
-        <v>125.2213443139005</v>
+        <v>19.74689347713964</v>
       </c>
       <c r="C10" s="3">
-        <v>27.424982924085452</v>
+        <v>55.471943463968422</v>
       </c>
       <c r="D10" s="3">
-        <v>13.38462298126457</v>
+        <v>6.9908181878684204</v>
       </c>
       <c r="E10" s="3">
-        <v>4.6365908255762687</v>
+        <v>3.2200997366292139</v>
       </c>
       <c r="F10" s="3">
-        <v>3.6169223500809742</v>
+        <v>3.1377568565688891</v>
       </c>
       <c r="G10">
-        <v>174.28446339490779</v>
+        <v>88.567511722174572</v>
       </c>
       <c r="H10">
         <v>0.25</v>
@@ -859,7 +859,7 @@
         <v>0</v>
       </c>
       <c r="J10">
-        <v>14</v>
+        <v>24</v>
       </c>
       <c r="K10" s="3">
         <v>0</v>
@@ -873,22 +873,22 @@
         <v>11</v>
       </c>
       <c r="B11" s="3">
-        <v>1067.4681848483131</v>
+        <v>21.204022083403441</v>
       </c>
       <c r="C11" s="3">
-        <v>86.470425712143708</v>
+        <v>62.753814354173763</v>
       </c>
       <c r="D11" s="3">
-        <v>4.9636343488602339</v>
+        <v>3.5781453423056222</v>
       </c>
       <c r="E11" s="3">
-        <v>6.1799334921040669</v>
+        <v>4.2754824039758024</v>
       </c>
       <c r="F11" s="3">
-        <v>3.6722632237199528</v>
+        <v>3.490393245803372</v>
       </c>
       <c r="G11">
-        <v>1168.754441625141</v>
+        <v>95.301857429662007</v>
       </c>
       <c r="H11">
         <v>0.25</v>
@@ -897,7 +897,7 @@
         <v>0</v>
       </c>
       <c r="J11">
-        <v>15</v>
+        <v>23</v>
       </c>
       <c r="K11" s="3">
         <v>0</v>
@@ -911,22 +911,22 @@
         <v>11</v>
       </c>
       <c r="B12" s="3">
-        <v>19.404406454561979</v>
+        <v>23.194658003641251</v>
       </c>
       <c r="C12" s="3">
-        <v>35.93858996009947</v>
+        <v>12.373684849960259</v>
       </c>
       <c r="D12" s="3">
-        <v>2.1709078707708098</v>
+        <v>51.193115506632957</v>
       </c>
       <c r="E12" s="3">
-        <v>3.398967914731768</v>
+        <v>5.954576152141609</v>
       </c>
       <c r="F12" s="3">
-        <v>3.772206532321404</v>
+        <v>3.0881357688222542</v>
       </c>
       <c r="G12">
-        <v>64.685078732485437</v>
+        <v>95.804170281198324</v>
       </c>
       <c r="H12">
         <v>0.25</v>
@@ -935,7 +935,7 @@
         <v>0</v>
       </c>
       <c r="J12">
-        <v>4</v>
+        <v>17</v>
       </c>
       <c r="K12" s="3">
         <v>0</v>
@@ -949,22 +949,22 @@
         <v>11</v>
       </c>
       <c r="B13" s="3">
-        <v>204.18913321752089</v>
+        <v>11.6124755411164</v>
       </c>
       <c r="C13" s="3">
-        <v>11.220038940725249</v>
+        <v>57.541641866882713</v>
       </c>
       <c r="D13" s="3">
-        <v>24.27304584925206</v>
+        <v>21.56514960162243</v>
       </c>
       <c r="E13" s="3">
-        <v>4.8852213665767632</v>
+        <v>5.9751220093888797</v>
       </c>
       <c r="F13" s="3">
-        <v>3.777352464024418</v>
+        <v>3.4868319025340222</v>
       </c>
       <c r="G13">
-        <v>248.34479183809941</v>
+        <v>100.18122092154439</v>
       </c>
       <c r="H13">
         <v>0.25</v>
@@ -973,7 +973,7 @@
         <v>0</v>
       </c>
       <c r="J13">
-        <v>10</v>
+        <v>5</v>
       </c>
       <c r="K13" s="3">
         <v>0</v>
@@ -987,22 +987,22 @@
         <v>11</v>
       </c>
       <c r="B14" s="3">
-        <v>13.42082617778194</v>
+        <v>46.360670585798402</v>
       </c>
       <c r="C14" s="3">
-        <v>47.482892732435268</v>
+        <v>25.644245478327921</v>
       </c>
       <c r="D14" s="3">
-        <v>16.81609686153913</v>
+        <v>31.379229953515651</v>
       </c>
       <c r="E14" s="3">
-        <v>5.9640887541074621</v>
+        <v>6.6168122233256224</v>
       </c>
       <c r="F14" s="3">
-        <v>4.242175089496671</v>
+        <v>7.1790718610399624</v>
       </c>
       <c r="G14">
-        <v>87.926079615360493</v>
+        <v>117.18003010200761</v>
       </c>
       <c r="H14">
         <v>0.25</v>
@@ -1011,7 +1011,7 @@
         <v>0</v>
       </c>
       <c r="J14">
-        <v>13</v>
+        <v>20</v>
       </c>
       <c r="K14" s="3">
         <v>0</v>
@@ -1025,22 +1025,22 @@
         <v>11</v>
       </c>
       <c r="B15" s="3">
-        <v>185.35018448743079</v>
+        <v>63.826654814487839</v>
       </c>
       <c r="C15" s="3">
-        <v>11.869877577587401</v>
+        <v>16.581230495962771</v>
       </c>
       <c r="D15" s="3">
-        <v>10.59153792205071</v>
+        <v>39.157731977945282</v>
       </c>
       <c r="E15" s="3">
-        <v>3.5850593763082408</v>
+        <v>4.0971495714706876</v>
       </c>
       <c r="F15" s="3">
-        <v>4.3331282460266802</v>
+        <v>3.0702725925128949</v>
       </c>
       <c r="G15">
-        <v>215.7297876094039</v>
+        <v>126.7330394523795</v>
       </c>
       <c r="H15">
         <v>0.25</v>
@@ -1049,7 +1049,7 @@
         <v>0</v>
       </c>
       <c r="J15">
-        <v>22</v>
+        <v>2</v>
       </c>
       <c r="K15" s="3">
         <v>0</v>
@@ -1063,22 +1063,22 @@
         <v>11</v>
       </c>
       <c r="B16" s="3">
-        <v>30.747776130311639</v>
+        <v>71.198999569906718</v>
       </c>
       <c r="C16" s="3">
-        <v>6.262772590814933</v>
+        <v>51.33673499419649</v>
       </c>
       <c r="D16" s="3">
-        <v>6.8269763952572946</v>
+        <v>6.11313244052256</v>
       </c>
       <c r="E16" s="3">
-        <v>2.971737058300747</v>
+        <v>5.6318864425657242</v>
       </c>
       <c r="F16" s="3">
-        <v>4.3384367458550859</v>
-      </c>
-      <c r="G16">
-        <v>51.147698920539703</v>
+        <v>5.7638947883455884</v>
+      </c>
+      <c r="G16" s="4">
+        <v>140.0446482355371</v>
       </c>
       <c r="H16">
         <v>0.25</v>
@@ -1087,13 +1087,13 @@
         <v>0</v>
       </c>
       <c r="J16">
-        <v>8</v>
+        <v>21</v>
       </c>
       <c r="K16" s="3">
         <v>0</v>
       </c>
       <c r="L16" t="s">
-        <v>12</v>
+        <v>13</v>
       </c>
     </row>
     <row r="17" spans="1:12" x14ac:dyDescent="0.3">
@@ -1101,22 +1101,22 @@
         <v>11</v>
       </c>
       <c r="B17" s="3">
-        <v>46.360670585798402</v>
+        <v>101.14347219132161</v>
       </c>
       <c r="C17" s="3">
-        <v>25.644245478327921</v>
+        <v>22.832278664946781</v>
       </c>
       <c r="D17" s="3">
-        <v>31.379229953515651</v>
+        <v>20.292603609655679</v>
       </c>
       <c r="E17" s="3">
-        <v>6.6168122233256224</v>
+        <v>5.5905261806953854</v>
       </c>
       <c r="F17" s="3">
-        <v>7.1790718610399624</v>
-      </c>
-      <c r="G17">
-        <v>117.18003010200761</v>
+        <v>10.70888884533935</v>
+      </c>
+      <c r="G17" s="4">
+        <v>160.5677694919589</v>
       </c>
       <c r="H17">
         <v>0.25</v>
@@ -1125,13 +1125,13 @@
         <v>0</v>
       </c>
       <c r="J17">
-        <v>20</v>
+        <v>10</v>
       </c>
       <c r="K17" s="3">
         <v>0</v>
       </c>
       <c r="L17" t="s">
-        <v>12</v>
+        <v>13</v>
       </c>
     </row>
     <row r="18" spans="1:12" x14ac:dyDescent="0.3">
@@ -1139,22 +1139,22 @@
         <v>11</v>
       </c>
       <c r="B18" s="3">
-        <v>227.02069950503889</v>
+        <v>18.68256825157054</v>
       </c>
       <c r="C18" s="3">
-        <v>14.40666841728455</v>
+        <v>93.610655809558537</v>
       </c>
       <c r="D18" s="3">
-        <v>11.215491469714321</v>
+        <v>19.476050025378949</v>
       </c>
       <c r="E18" s="3">
-        <v>8.3350221728667808</v>
+        <v>10.35108984269983</v>
       </c>
       <c r="F18" s="3">
-        <v>8.540940597228257</v>
+        <v>18.633628638306469</v>
       </c>
       <c r="G18">
-        <v>269.51882216213278</v>
+        <v>160.7539925675143</v>
       </c>
       <c r="H18">
         <v>0.25</v>
@@ -1163,7 +1163,7 @@
         <v>0</v>
       </c>
       <c r="J18">
-        <v>1</v>
+        <v>6</v>
       </c>
       <c r="K18" s="3">
         <v>0</v>
@@ -1177,22 +1177,22 @@
         <v>11</v>
       </c>
       <c r="B19" s="3">
-        <v>83.113451022449382</v>
+        <v>105.8971100129361</v>
       </c>
       <c r="C19" s="3">
-        <v>17.506513143281492</v>
+        <v>53.014098320019507</v>
       </c>
       <c r="D19" s="3">
-        <v>51.615369584131138</v>
+        <v>3.404196167153287</v>
       </c>
       <c r="E19" s="3">
-        <v>11.576749282312351</v>
+        <v>3.233824184292919</v>
       </c>
       <c r="F19" s="3">
-        <v>10.50987933722455</v>
-      </c>
-      <c r="G19">
-        <v>174.32196236939899</v>
+        <v>3.2683620534429498</v>
+      </c>
+      <c r="G19" s="4">
+        <v>168.8175907378448</v>
       </c>
       <c r="H19">
         <v>0.25</v>
@@ -1201,13 +1201,13 @@
         <v>0</v>
       </c>
       <c r="J19">
-        <v>11</v>
+        <v>13</v>
       </c>
       <c r="K19" s="3">
         <v>0</v>
       </c>
       <c r="L19" t="s">
-        <v>12</v>
+        <v>13</v>
       </c>
     </row>
     <row r="20" spans="1:12" x14ac:dyDescent="0.3">
@@ -1215,22 +1215,22 @@
         <v>11</v>
       </c>
       <c r="B20" s="3">
-        <v>19.712538584936201</v>
+        <v>125.2213443139005</v>
       </c>
       <c r="C20" s="3">
-        <v>134.99179758516499</v>
+        <v>27.424982924085452</v>
       </c>
       <c r="D20" s="3">
-        <v>19.124137864443949</v>
+        <v>13.38462298126457</v>
       </c>
       <c r="E20" s="3">
-        <v>9.2782947265101861</v>
+        <v>4.6365908255762687</v>
       </c>
       <c r="F20" s="3">
-        <v>13.81632798144328</v>
+        <v>3.6169223500809742</v>
       </c>
       <c r="G20">
-        <v>196.92309674249859</v>
+        <v>174.28446339490779</v>
       </c>
       <c r="H20">
         <v>0.25</v>
@@ -1239,7 +1239,7 @@
         <v>0</v>
       </c>
       <c r="J20">
-        <v>19</v>
+        <v>14</v>
       </c>
       <c r="K20" s="3">
         <v>0</v>
@@ -1253,22 +1253,22 @@
         <v>11</v>
       </c>
       <c r="B21" s="3">
-        <v>18.68256825157054</v>
+        <v>83.113451022449382</v>
       </c>
       <c r="C21" s="3">
-        <v>93.610655809558537</v>
+        <v>17.506513143281492</v>
       </c>
       <c r="D21" s="3">
-        <v>19.476050025378949</v>
+        <v>51.615369584131138</v>
       </c>
       <c r="E21" s="3">
-        <v>10.35108984269983</v>
+        <v>11.576749282312351</v>
       </c>
       <c r="F21" s="3">
-        <v>18.633628638306469</v>
+        <v>10.50987933722455</v>
       </c>
       <c r="G21">
-        <v>160.7539925675143</v>
+        <v>174.32196236939899</v>
       </c>
       <c r="H21">
         <v>0.25</v>
@@ -1277,7 +1277,7 @@
         <v>0</v>
       </c>
       <c r="J21">
-        <v>6</v>
+        <v>11</v>
       </c>
       <c r="K21" s="3">
         <v>0</v>
@@ -1291,22 +1291,22 @@
         <v>11</v>
       </c>
       <c r="B22" s="3">
-        <v>1157.1941449262811</v>
+        <v>59.778547427244362</v>
       </c>
       <c r="C22" s="3">
-        <v>242.05497324197819</v>
+        <v>10.42457440460881</v>
       </c>
       <c r="D22" s="3">
-        <v>52.183852165644417</v>
+        <v>6.9699348422613054</v>
       </c>
       <c r="E22" s="3">
-        <v>34.238221630313078</v>
+        <v>19.365447309807379</v>
       </c>
       <c r="F22" s="3">
-        <v>25.802918123428231</v>
-      </c>
-      <c r="G22">
-        <v>1511.4741100876449</v>
+        <v>94.373569823942034</v>
+      </c>
+      <c r="G22" s="4">
+        <v>190.91207380786389</v>
       </c>
       <c r="H22">
         <v>0.25</v>
@@ -1315,13 +1315,13 @@
         <v>0</v>
       </c>
       <c r="J22">
-        <v>9</v>
+        <v>17</v>
       </c>
       <c r="K22" s="3">
         <v>0</v>
       </c>
       <c r="L22" t="s">
-        <v>12</v>
+        <v>13</v>
       </c>
     </row>
     <row r="23" spans="1:12" x14ac:dyDescent="0.3">
@@ -1329,22 +1329,22 @@
         <v>11</v>
       </c>
       <c r="B23" s="3">
-        <v>11305.02986449886</v>
+        <v>19.712538584936201</v>
       </c>
       <c r="C23" s="3">
-        <v>1118.3253489761651</v>
+        <v>134.99179758516499</v>
       </c>
       <c r="D23" s="3">
-        <v>739.28038815800778</v>
+        <v>19.124137864443949</v>
       </c>
       <c r="E23" s="3">
-        <v>596.65811292167587</v>
+        <v>9.2782947265101861</v>
       </c>
       <c r="F23" s="3">
-        <v>440.16371994018562</v>
+        <v>13.81632798144328</v>
       </c>
       <c r="G23">
-        <v>14199.457434494891</v>
+        <v>196.92309674249859</v>
       </c>
       <c r="H23">
         <v>0.25</v>
@@ -1353,7 +1353,7 @@
         <v>0</v>
       </c>
       <c r="J23">
-        <v>21</v>
+        <v>19</v>
       </c>
       <c r="K23" s="3">
         <v>0</v>
@@ -1367,22 +1367,22 @@
         <v>11</v>
       </c>
       <c r="B24" s="3">
-        <v>529.19260559156567</v>
+        <v>88.266919529143166</v>
       </c>
       <c r="C24" s="3">
-        <v>60.926742746307191</v>
+        <v>103.474938566986</v>
       </c>
       <c r="D24" s="3">
-        <v>5.5533955000854576</v>
+        <v>4.3144962969603844</v>
       </c>
       <c r="E24" s="3">
-        <v>2.4966844858262389</v>
+        <v>4.3503734668812104</v>
       </c>
       <c r="F24" s="3">
-        <v>2.5791346405497362</v>
+        <v>4.5500455678684517</v>
       </c>
       <c r="G24" s="4">
-        <v>600.74856296433427</v>
+        <v>204.95677342783921</v>
       </c>
       <c r="H24">
         <v>0.25</v>
@@ -1391,7 +1391,7 @@
         <v>0</v>
       </c>
       <c r="J24">
-        <v>16</v>
+        <v>4</v>
       </c>
       <c r="K24" s="3">
         <v>0</v>
@@ -1405,22 +1405,22 @@
         <v>11</v>
       </c>
       <c r="B25" s="3">
-        <v>316.33659518555788</v>
+        <v>174.44283746125029</v>
       </c>
       <c r="C25" s="3">
-        <v>16.65910097030277</v>
+        <v>12.239362354284591</v>
       </c>
       <c r="D25" s="3">
-        <v>8.5563715735845065</v>
+        <v>12.183104782436599</v>
       </c>
       <c r="E25" s="3">
-        <v>3.0345788952195112</v>
+        <v>4.4512213899596951</v>
       </c>
       <c r="F25" s="3">
-        <v>2.8939379577009579</v>
+        <v>3.015331867030528</v>
       </c>
       <c r="G25" s="4">
-        <v>347.48058458236562</v>
+        <v>206.33185785496181</v>
       </c>
       <c r="H25">
         <v>0.25</v>
@@ -1429,7 +1429,7 @@
         <v>0</v>
       </c>
       <c r="J25">
-        <v>22</v>
+        <v>3</v>
       </c>
       <c r="K25" s="3">
         <v>0</v>
@@ -1443,22 +1443,22 @@
         <v>11</v>
       </c>
       <c r="B26" s="3">
-        <v>174.44283746125029</v>
+        <v>185.35018448743079</v>
       </c>
       <c r="C26" s="3">
-        <v>12.239362354284591</v>
+        <v>11.869877577587401</v>
       </c>
       <c r="D26" s="3">
-        <v>12.183104782436599</v>
+        <v>10.59153792205071</v>
       </c>
       <c r="E26" s="3">
-        <v>4.4512213899596951</v>
+        <v>3.5850593763082408</v>
       </c>
       <c r="F26" s="3">
-        <v>3.015331867030528</v>
-      </c>
-      <c r="G26" s="4">
-        <v>206.33185785496181</v>
+        <v>4.3331282460266802</v>
+      </c>
+      <c r="G26">
+        <v>215.7297876094039</v>
       </c>
       <c r="H26">
         <v>0.25</v>
@@ -1467,13 +1467,13 @@
         <v>0</v>
       </c>
       <c r="J26">
-        <v>3</v>
+        <v>22</v>
       </c>
       <c r="K26" s="3">
         <v>0</v>
       </c>
       <c r="L26" t="s">
-        <v>13</v>
+        <v>12</v>
       </c>
     </row>
     <row r="27" spans="1:12" x14ac:dyDescent="0.3">
@@ -1481,22 +1481,22 @@
         <v>11</v>
       </c>
       <c r="B27" s="3">
-        <v>199.9662362580587</v>
+        <v>204.18913321752089</v>
       </c>
       <c r="C27" s="3">
-        <v>52.394433495313358</v>
+        <v>11.220038940725249</v>
       </c>
       <c r="D27" s="3">
-        <v>4.3404447309734877</v>
+        <v>24.27304584925206</v>
       </c>
       <c r="E27" s="3">
-        <v>2.8332559032916849</v>
+        <v>4.8852213665767632</v>
       </c>
       <c r="F27" s="3">
-        <v>3.0561403481864788</v>
-      </c>
-      <c r="G27" s="4">
-        <v>262.59051073582373</v>
+        <v>3.777352464024418</v>
+      </c>
+      <c r="G27">
+        <v>248.34479183809941</v>
       </c>
       <c r="H27">
         <v>0.25</v>
@@ -1505,13 +1505,13 @@
         <v>0</v>
       </c>
       <c r="J27">
-        <v>9</v>
+        <v>10</v>
       </c>
       <c r="K27" s="3">
         <v>0</v>
       </c>
       <c r="L27" t="s">
-        <v>13</v>
+        <v>12</v>
       </c>
     </row>
     <row r="28" spans="1:12" x14ac:dyDescent="0.3">
@@ -1519,22 +1519,22 @@
         <v>11</v>
       </c>
       <c r="B28" s="3">
-        <v>1503.079396992913</v>
+        <v>199.9662362580587</v>
       </c>
       <c r="C28" s="3">
-        <v>79.093942551996832</v>
+        <v>52.394433495313358</v>
       </c>
       <c r="D28" s="3">
-        <v>5.2286145774423041</v>
+        <v>4.3404447309734877</v>
       </c>
       <c r="E28" s="3">
-        <v>4.6289802401631706</v>
+        <v>2.8332559032916849</v>
       </c>
       <c r="F28" s="3">
-        <v>3.2157781631350701</v>
+        <v>3.0561403481864788</v>
       </c>
       <c r="G28" s="4">
-        <v>1595.246712525651</v>
+        <v>262.59051073582373</v>
       </c>
       <c r="H28">
         <v>0.25</v>
@@ -1543,7 +1543,7 @@
         <v>0</v>
       </c>
       <c r="J28">
-        <v>23</v>
+        <v>9</v>
       </c>
       <c r="K28" s="3">
         <v>0</v>
@@ -1557,22 +1557,22 @@
         <v>11</v>
       </c>
       <c r="B29" s="3">
-        <v>105.8971100129361</v>
+        <v>95.62299966160478</v>
       </c>
       <c r="C29" s="3">
-        <v>53.014098320019507</v>
+        <v>87.31383103725139</v>
       </c>
       <c r="D29" s="3">
-        <v>3.404196167153287</v>
+        <v>8.4369804546763589</v>
       </c>
       <c r="E29" s="3">
-        <v>3.233824184292919</v>
+        <v>22.789455019734529</v>
       </c>
       <c r="F29" s="3">
-        <v>3.2683620534429498</v>
-      </c>
-      <c r="G29" s="4">
-        <v>168.8175907378448</v>
+        <v>54.926623926138788</v>
+      </c>
+      <c r="G29">
+        <v>269.08989009940581</v>
       </c>
       <c r="H29">
         <v>0.25</v>
@@ -1581,13 +1581,13 @@
         <v>0</v>
       </c>
       <c r="J29">
-        <v>13</v>
+        <v>23</v>
       </c>
       <c r="K29" s="3">
         <v>0</v>
       </c>
       <c r="L29" t="s">
-        <v>13</v>
+        <v>14</v>
       </c>
     </row>
     <row r="30" spans="1:12" x14ac:dyDescent="0.3">
@@ -1595,22 +1595,22 @@
         <v>11</v>
       </c>
       <c r="B30" s="3">
-        <v>795.963940455395</v>
+        <v>227.02069950503889</v>
       </c>
       <c r="C30" s="3">
-        <v>49.725233908552902</v>
+        <v>14.40666841728455</v>
       </c>
       <c r="D30" s="3">
-        <v>11.76217531054079</v>
+        <v>11.215491469714321</v>
       </c>
       <c r="E30" s="3">
-        <v>4.1562451918293606</v>
+        <v>8.3350221728667808</v>
       </c>
       <c r="F30" s="3">
-        <v>3.4821582957502581</v>
-      </c>
-      <c r="G30" s="4">
-        <v>865.08975316206829</v>
+        <v>8.540940597228257</v>
+      </c>
+      <c r="G30">
+        <v>269.51882216213278</v>
       </c>
       <c r="H30">
         <v>0.25</v>
@@ -1619,13 +1619,13 @@
         <v>0</v>
       </c>
       <c r="J30">
-        <v>2</v>
+        <v>1</v>
       </c>
       <c r="K30" s="3">
         <v>0</v>
       </c>
       <c r="L30" t="s">
-        <v>13</v>
+        <v>12</v>
       </c>
     </row>
     <row r="31" spans="1:12" x14ac:dyDescent="0.3">
@@ -1633,22 +1633,22 @@
         <v>11</v>
       </c>
       <c r="B31" s="3">
-        <v>309.87368123108962</v>
+        <v>76.080050716516382</v>
       </c>
       <c r="C31" s="3">
-        <v>326.31842299747518</v>
+        <v>75.72266663709371</v>
       </c>
       <c r="D31" s="3">
-        <v>11.01336700466071</v>
+        <v>16.10516240164813</v>
       </c>
       <c r="E31" s="3">
-        <v>8.5432178910709524</v>
+        <v>42.430493110105353</v>
       </c>
       <c r="F31" s="3">
-        <v>4.2667076388688798</v>
+        <v>91.563283328426223</v>
       </c>
       <c r="G31" s="4">
-        <v>660.01539676316543</v>
+        <v>301.90165619378979</v>
       </c>
       <c r="H31">
         <v>0.25</v>
@@ -1657,7 +1657,7 @@
         <v>0</v>
       </c>
       <c r="J31">
-        <v>18</v>
+        <v>8</v>
       </c>
       <c r="K31" s="3">
         <v>0</v>
@@ -1671,22 +1671,22 @@
         <v>11</v>
       </c>
       <c r="B32" s="3">
-        <v>88.266919529143166</v>
+        <v>186.806218002669</v>
       </c>
       <c r="C32" s="3">
-        <v>103.474938566986</v>
+        <v>103.1996996488534</v>
       </c>
       <c r="D32" s="3">
-        <v>4.3144962969603844</v>
+        <v>5.3180560696121004</v>
       </c>
       <c r="E32" s="3">
-        <v>4.3503734668812104</v>
+        <v>5.7906331228855636</v>
       </c>
       <c r="F32" s="3">
-        <v>4.5500455678684517</v>
-      </c>
-      <c r="G32" s="4">
-        <v>204.95677342783921</v>
+        <v>6.2085102087817967</v>
+      </c>
+      <c r="G32">
+        <v>307.32311705280188</v>
       </c>
       <c r="H32">
         <v>0.25</v>
@@ -1695,13 +1695,13 @@
         <v>0</v>
       </c>
       <c r="J32">
-        <v>4</v>
+        <v>5</v>
       </c>
       <c r="K32" s="3">
         <v>0</v>
       </c>
       <c r="L32" t="s">
-        <v>13</v>
+        <v>14</v>
       </c>
     </row>
     <row r="33" spans="1:12" x14ac:dyDescent="0.3">
@@ -1709,22 +1709,22 @@
         <v>11</v>
       </c>
       <c r="B33" s="3">
-        <v>37.690913009940147</v>
+        <v>158.0830513526779</v>
       </c>
       <c r="C33" s="3">
-        <v>6.0734304572686861</v>
+        <v>140.2928759072625</v>
       </c>
       <c r="D33" s="3">
-        <v>3.2749602455053219</v>
+        <v>7.0695412254694441</v>
       </c>
       <c r="E33" s="3">
-        <v>2.7517068665190298</v>
+        <v>5.7928123010432486</v>
       </c>
       <c r="F33" s="3">
-        <v>4.8179464204956997</v>
-      </c>
-      <c r="G33" s="4">
-        <v>54.608956999728868</v>
+        <v>5.6760338349362813</v>
+      </c>
+      <c r="G33">
+        <v>316.91431462138928</v>
       </c>
       <c r="H33">
         <v>0.25</v>
@@ -1733,13 +1733,13 @@
         <v>0</v>
       </c>
       <c r="J33">
-        <v>12</v>
+        <v>1</v>
       </c>
       <c r="K33" s="3">
         <v>0</v>
       </c>
       <c r="L33" t="s">
-        <v>13</v>
+        <v>14</v>
       </c>
     </row>
     <row r="34" spans="1:12" x14ac:dyDescent="0.3">
@@ -1747,22 +1747,22 @@
         <v>11</v>
       </c>
       <c r="B34" s="3">
-        <v>71.198999569906718</v>
+        <v>158.0830513526779</v>
       </c>
       <c r="C34" s="3">
-        <v>51.33673499419649</v>
+        <v>140.2928759072625</v>
       </c>
       <c r="D34" s="3">
-        <v>6.11313244052256</v>
+        <v>7.0695412254694441</v>
       </c>
       <c r="E34" s="3">
-        <v>5.6318864425657242</v>
+        <v>5.7928123010432486</v>
       </c>
       <c r="F34" s="3">
-        <v>5.7638947883455884</v>
-      </c>
-      <c r="G34" s="4">
-        <v>140.0446482355371</v>
+        <v>5.6760338349362813</v>
+      </c>
+      <c r="G34">
+        <v>316.91431462138928</v>
       </c>
       <c r="H34">
         <v>0.25</v>
@@ -1771,13 +1771,13 @@
         <v>0</v>
       </c>
       <c r="J34">
-        <v>21</v>
+        <v>2</v>
       </c>
       <c r="K34" s="3">
         <v>0</v>
       </c>
       <c r="L34" t="s">
-        <v>13</v>
+        <v>14</v>
       </c>
     </row>
     <row r="35" spans="1:12" x14ac:dyDescent="0.3">
@@ -1785,22 +1785,22 @@
         <v>11</v>
       </c>
       <c r="B35" s="3">
-        <v>710.42788422519266</v>
+        <v>158.0830513526779</v>
       </c>
       <c r="C35" s="3">
-        <v>147.4834333527912</v>
+        <v>140.2928759072625</v>
       </c>
       <c r="D35" s="3">
-        <v>12.96353707256702</v>
+        <v>7.0695412254694441</v>
       </c>
       <c r="E35" s="3">
-        <v>9.1219393962311983</v>
+        <v>5.7928123010432486</v>
       </c>
       <c r="F35" s="3">
-        <v>6.2596429017935176</v>
-      </c>
-      <c r="G35" s="4">
-        <v>886.25643694857592</v>
+        <v>5.6760338349362813</v>
+      </c>
+      <c r="G35">
+        <v>316.91431462138928</v>
       </c>
       <c r="H35">
         <v>0.25</v>
@@ -1809,13 +1809,13 @@
         <v>0</v>
       </c>
       <c r="J35">
+        <v>3</v>
+      </c>
+      <c r="K35" s="3">
+        <v>0</v>
+      </c>
+      <c r="L35" t="s">
         <v>14</v>
-      </c>
-      <c r="K35" s="3">
-        <v>0</v>
-      </c>
-      <c r="L35" t="s">
-        <v>13</v>
       </c>
     </row>
     <row r="36" spans="1:12" x14ac:dyDescent="0.3">
@@ -1823,22 +1823,22 @@
         <v>11</v>
       </c>
       <c r="B36" s="3">
-        <v>529.11061600065455</v>
+        <v>158.0830513526779</v>
       </c>
       <c r="C36" s="3">
-        <v>66.45679515916683</v>
+        <v>140.2928759072625</v>
       </c>
       <c r="D36" s="3">
-        <v>9.4424113906220164</v>
+        <v>7.0695412254694441</v>
       </c>
       <c r="E36" s="3">
-        <v>4.2644644352908561</v>
+        <v>5.7928123010432486</v>
       </c>
       <c r="F36" s="3">
-        <v>7.5826539012990546</v>
-      </c>
-      <c r="G36" s="4">
-        <v>616.85694088703337</v>
+        <v>5.6760338349362813</v>
+      </c>
+      <c r="G36">
+        <v>316.91431462138928</v>
       </c>
       <c r="H36">
         <v>0.25</v>
@@ -1847,13 +1847,13 @@
         <v>0</v>
       </c>
       <c r="J36">
-        <v>7</v>
+        <v>4</v>
       </c>
       <c r="K36" s="3">
         <v>0</v>
       </c>
       <c r="L36" t="s">
-        <v>13</v>
+        <v>14</v>
       </c>
     </row>
     <row r="37" spans="1:12" x14ac:dyDescent="0.3">
@@ -1861,22 +1861,22 @@
         <v>11</v>
       </c>
       <c r="B37" s="3">
-        <v>35.604125020227222</v>
+        <v>158.0830513526779</v>
       </c>
       <c r="C37" s="3">
-        <v>4.903311356164421</v>
+        <v>140.2928759072625</v>
       </c>
       <c r="D37" s="3">
-        <v>2.9216354424095732</v>
+        <v>7.0695412254694441</v>
       </c>
       <c r="E37" s="3">
-        <v>5.08330826920443</v>
+        <v>5.7928123010432486</v>
       </c>
       <c r="F37" s="3">
-        <v>9.6262273195036023</v>
-      </c>
-      <c r="G37" s="4">
-        <v>58.138607407509262</v>
+        <v>5.6760338349362813</v>
+      </c>
+      <c r="G37">
+        <v>316.91431462138928</v>
       </c>
       <c r="H37">
         <v>0.25</v>
@@ -1885,13 +1885,13 @@
         <v>0</v>
       </c>
       <c r="J37">
-        <v>11</v>
+        <v>9</v>
       </c>
       <c r="K37" s="3">
         <v>0</v>
       </c>
       <c r="L37" t="s">
-        <v>13</v>
+        <v>14</v>
       </c>
     </row>
     <row r="38" spans="1:12" x14ac:dyDescent="0.3">
@@ -1899,22 +1899,22 @@
         <v>11</v>
       </c>
       <c r="B38" s="3">
-        <v>259.88624295361581</v>
+        <v>158.0830513526779</v>
       </c>
       <c r="C38" s="3">
-        <v>60.822309766206573</v>
+        <v>140.2928759072625</v>
       </c>
       <c r="D38" s="3">
-        <v>9.5239859709597869</v>
+        <v>7.0695412254694441</v>
       </c>
       <c r="E38" s="3">
-        <v>8.7237935939731379</v>
+        <v>5.7928123010432486</v>
       </c>
       <c r="F38" s="3">
-        <v>10.26914082830908</v>
-      </c>
-      <c r="G38" s="4">
-        <v>349.22547311306442</v>
+        <v>5.6760338349362813</v>
+      </c>
+      <c r="G38">
+        <v>316.91431462138928</v>
       </c>
       <c r="H38">
         <v>0.25</v>
@@ -1923,13 +1923,13 @@
         <v>0</v>
       </c>
       <c r="J38">
-        <v>24</v>
+        <v>12</v>
       </c>
       <c r="K38" s="3">
         <v>0</v>
       </c>
       <c r="L38" t="s">
-        <v>13</v>
+        <v>14</v>
       </c>
     </row>
     <row r="39" spans="1:12" x14ac:dyDescent="0.3">
@@ -1937,22 +1937,22 @@
         <v>11</v>
       </c>
       <c r="B39" s="3">
-        <v>292.36699453659241</v>
+        <v>158.0830513526779</v>
       </c>
       <c r="C39" s="3">
-        <v>16.572631002862408</v>
+        <v>140.2928759072625</v>
       </c>
       <c r="D39" s="3">
-        <v>7.6122229942940196</v>
+        <v>7.0695412254694441</v>
       </c>
       <c r="E39" s="3">
-        <v>7.5986482570591392</v>
+        <v>5.7928123010432486</v>
       </c>
       <c r="F39" s="3">
-        <v>10.492430063409151</v>
-      </c>
-      <c r="G39" s="4">
-        <v>334.64292685421708</v>
+        <v>5.6760338349362813</v>
+      </c>
+      <c r="G39">
+        <v>316.91431462138928</v>
       </c>
       <c r="H39">
         <v>0.25</v>
@@ -1961,13 +1961,13 @@
         <v>0</v>
       </c>
       <c r="J39">
-        <v>1</v>
+        <v>16</v>
       </c>
       <c r="K39" s="3">
         <v>0</v>
       </c>
       <c r="L39" t="s">
-        <v>13</v>
+        <v>14</v>
       </c>
     </row>
     <row r="40" spans="1:12" x14ac:dyDescent="0.3">
@@ -1975,22 +1975,22 @@
         <v>11</v>
       </c>
       <c r="B40" s="3">
-        <v>101.14347219132161</v>
+        <v>158.0830513526779</v>
       </c>
       <c r="C40" s="3">
-        <v>22.832278664946781</v>
+        <v>140.2928759072625</v>
       </c>
       <c r="D40" s="3">
-        <v>20.292603609655679</v>
+        <v>7.0695412254694441</v>
       </c>
       <c r="E40" s="3">
-        <v>5.5905261806953854</v>
+        <v>5.7928123010432486</v>
       </c>
       <c r="F40" s="3">
-        <v>10.70888884533935</v>
-      </c>
-      <c r="G40" s="4">
-        <v>160.5677694919589</v>
+        <v>5.6760338349362813</v>
+      </c>
+      <c r="G40">
+        <v>316.91431462138928</v>
       </c>
       <c r="H40">
         <v>0.25</v>
@@ -1999,13 +1999,13 @@
         <v>0</v>
       </c>
       <c r="J40">
-        <v>10</v>
+        <v>17</v>
       </c>
       <c r="K40" s="3">
         <v>0</v>
       </c>
       <c r="L40" t="s">
-        <v>13</v>
+        <v>14</v>
       </c>
     </row>
     <row r="41" spans="1:12" x14ac:dyDescent="0.3">
@@ -2013,22 +2013,22 @@
         <v>11</v>
       </c>
       <c r="B41" s="3">
-        <v>538.51584768868736</v>
+        <v>158.0830513526779</v>
       </c>
       <c r="C41" s="3">
-        <v>138.02726181896011</v>
+        <v>140.2928759072625</v>
       </c>
       <c r="D41" s="3">
-        <v>7.650706811451693</v>
+        <v>7.0695412254694441</v>
       </c>
       <c r="E41" s="3">
-        <v>9.1491872035345878</v>
+        <v>5.7928123010432486</v>
       </c>
       <c r="F41" s="3">
-        <v>13.634602986789851</v>
-      </c>
-      <c r="G41" s="4">
-        <v>706.97760650942382</v>
+        <v>5.6760338349362813</v>
+      </c>
+      <c r="G41">
+        <v>316.91431462138928</v>
       </c>
       <c r="H41">
         <v>0.25</v>
@@ -2037,13 +2037,13 @@
         <v>0</v>
       </c>
       <c r="J41">
-        <v>19</v>
+        <v>22</v>
       </c>
       <c r="K41" s="3">
         <v>0</v>
       </c>
       <c r="L41" t="s">
-        <v>13</v>
+        <v>14</v>
       </c>
     </row>
     <row r="42" spans="1:12" x14ac:dyDescent="0.3">
@@ -2051,22 +2051,22 @@
         <v>11</v>
       </c>
       <c r="B42" s="3">
-        <v>1254.7449605554809</v>
+        <v>292.36699453659241</v>
       </c>
       <c r="C42" s="3">
-        <v>172.320086031519</v>
+        <v>16.572631002862408</v>
       </c>
       <c r="D42" s="3">
-        <v>26.383347488318261</v>
+        <v>7.6122229942940196</v>
       </c>
       <c r="E42" s="3">
-        <v>11.9614631575547</v>
+        <v>7.5986482570591392</v>
       </c>
       <c r="F42" s="3">
-        <v>17.37068650040397</v>
+        <v>10.492430063409151</v>
       </c>
       <c r="G42" s="4">
-        <v>1482.780543733277</v>
+        <v>334.64292685421708</v>
       </c>
       <c r="H42">
         <v>0.25</v>
@@ -2075,7 +2075,7 @@
         <v>0</v>
       </c>
       <c r="J42">
-        <v>6</v>
+        <v>1</v>
       </c>
       <c r="K42" s="3">
         <v>0</v>
@@ -2089,22 +2089,22 @@
         <v>11</v>
       </c>
       <c r="B43" s="3">
-        <v>421.42346422234363</v>
+        <v>316.33659518555788</v>
       </c>
       <c r="C43" s="3">
-        <v>56.634831521256423</v>
+        <v>16.65910097030277</v>
       </c>
       <c r="D43" s="3">
-        <v>12.1272459985037</v>
+        <v>8.5563715735845065</v>
       </c>
       <c r="E43" s="3">
-        <v>13.403540454597771</v>
+        <v>3.0345788952195112</v>
       </c>
       <c r="F43" s="3">
-        <v>21.303672356215529</v>
+        <v>2.8939379577009579</v>
       </c>
       <c r="G43" s="4">
-        <v>524.89275455291693</v>
+        <v>347.48058458236562</v>
       </c>
       <c r="H43">
         <v>0.25</v>
@@ -2113,7 +2113,7 @@
         <v>0</v>
       </c>
       <c r="J43">
-        <v>5</v>
+        <v>22</v>
       </c>
       <c r="K43" s="3">
         <v>0</v>
@@ -2127,22 +2127,22 @@
         <v>11</v>
       </c>
       <c r="B44" s="3">
-        <v>76.080050716516382</v>
+        <v>259.88624295361581</v>
       </c>
       <c r="C44" s="3">
-        <v>75.72266663709371</v>
+        <v>60.822309766206573</v>
       </c>
       <c r="D44" s="3">
-        <v>16.10516240164813</v>
+        <v>9.5239859709597869</v>
       </c>
       <c r="E44" s="3">
-        <v>42.430493110105353</v>
+        <v>8.7237935939731379</v>
       </c>
       <c r="F44" s="3">
-        <v>91.563283328426223</v>
+        <v>10.26914082830908</v>
       </c>
       <c r="G44" s="4">
-        <v>301.90165619378979</v>
+        <v>349.22547311306442</v>
       </c>
       <c r="H44">
         <v>0.25</v>
@@ -2151,7 +2151,7 @@
         <v>0</v>
       </c>
       <c r="J44">
-        <v>8</v>
+        <v>24</v>
       </c>
       <c r="K44" s="3">
         <v>0</v>
@@ -2165,22 +2165,22 @@
         <v>11</v>
       </c>
       <c r="B45" s="3">
-        <v>59.778547427244362</v>
+        <v>328.9084721030265</v>
       </c>
       <c r="C45" s="3">
-        <v>10.42457440460881</v>
+        <v>104.2916437416557</v>
       </c>
       <c r="D45" s="3">
-        <v>6.9699348422613054</v>
+        <v>14.98973665707801</v>
       </c>
       <c r="E45" s="3">
-        <v>19.365447309807379</v>
+        <v>7.8322523107390554</v>
       </c>
       <c r="F45" s="3">
-        <v>94.373569823942034</v>
-      </c>
-      <c r="G45" s="4">
-        <v>190.91207380786389</v>
+        <v>5.9602721294094616</v>
+      </c>
+      <c r="G45">
+        <v>461.98237694190863</v>
       </c>
       <c r="H45">
         <v>0.25</v>
@@ -2189,13 +2189,13 @@
         <v>0</v>
       </c>
       <c r="J45">
-        <v>17</v>
+        <v>6</v>
       </c>
       <c r="K45" s="3">
         <v>0</v>
       </c>
       <c r="L45" t="s">
-        <v>13</v>
+        <v>14</v>
       </c>
     </row>
     <row r="46" spans="1:12" x14ac:dyDescent="0.3">
@@ -2203,22 +2203,22 @@
         <v>11</v>
       </c>
       <c r="B46" s="3">
-        <v>306.28148078410152</v>
+        <v>320.56798426591018</v>
       </c>
       <c r="C46" s="3">
-        <v>51.446613241267769</v>
+        <v>135.19543134828299</v>
       </c>
       <c r="D46" s="3">
-        <v>48.936191525250571</v>
+        <v>10.53757897575395</v>
       </c>
       <c r="E46" s="3">
-        <v>67.155981156361833</v>
+        <v>11.893860774628919</v>
       </c>
       <c r="F46" s="3">
-        <v>119.583430744352</v>
-      </c>
-      <c r="G46" s="4">
-        <v>593.40369745133353</v>
+        <v>30.052347776706561</v>
+      </c>
+      <c r="G46">
+        <v>508.24720314128268</v>
       </c>
       <c r="H46">
         <v>0.25</v>
@@ -2227,13 +2227,13 @@
         <v>0</v>
       </c>
       <c r="J46">
-        <v>20</v>
+        <v>7</v>
       </c>
       <c r="K46" s="3">
         <v>0</v>
       </c>
       <c r="L46" t="s">
-        <v>13</v>
+        <v>14</v>
       </c>
     </row>
     <row r="47" spans="1:12" x14ac:dyDescent="0.3">
@@ -2241,22 +2241,22 @@
         <v>11</v>
       </c>
       <c r="B47" s="3">
-        <v>1015.444030923359</v>
+        <v>421.42346422234363</v>
       </c>
       <c r="C47" s="3">
-        <v>127.117264310742</v>
+        <v>56.634831521256423</v>
       </c>
       <c r="D47" s="3">
-        <v>12.110835852860109</v>
+        <v>12.1272459985037</v>
       </c>
       <c r="E47" s="3">
-        <v>4.8728691872342136</v>
+        <v>13.403540454597771</v>
       </c>
       <c r="F47" s="3">
-        <v>5.0227134408120788</v>
-      </c>
-      <c r="G47">
-        <v>1164.567713715008</v>
+        <v>21.303672356215529</v>
+      </c>
+      <c r="G47" s="4">
+        <v>524.89275455291693</v>
       </c>
       <c r="H47">
         <v>0.25</v>
@@ -2265,13 +2265,13 @@
         <v>0</v>
       </c>
       <c r="J47">
-        <v>8</v>
+        <v>5</v>
       </c>
       <c r="K47" s="3">
         <v>0</v>
       </c>
       <c r="L47" t="s">
-        <v>14</v>
+        <v>13</v>
       </c>
     </row>
     <row r="48" spans="1:12" x14ac:dyDescent="0.3">
@@ -2279,22 +2279,22 @@
         <v>11</v>
       </c>
       <c r="B48" s="3">
-        <v>2053.1305719285201</v>
+        <v>404.2238881663871</v>
       </c>
       <c r="C48" s="3">
-        <v>142.66939033961171</v>
+        <v>86.572881192746053</v>
       </c>
       <c r="D48" s="3">
-        <v>12.416090447266379</v>
+        <v>22.573280728526569</v>
       </c>
       <c r="E48" s="3">
-        <v>4.7736605646580799</v>
+        <v>9.6333603539308683</v>
       </c>
       <c r="F48" s="3">
-        <v>5.2926632281287578</v>
+        <v>10.915243634425741</v>
       </c>
       <c r="G48">
-        <v>2218.2823765081848</v>
+        <v>533.91865407601631</v>
       </c>
       <c r="H48">
         <v>0.25</v>
@@ -2303,7 +2303,7 @@
         <v>0</v>
       </c>
       <c r="J48">
-        <v>13</v>
+        <v>18</v>
       </c>
       <c r="K48" s="3">
         <v>0</v>
@@ -2317,22 +2317,22 @@
         <v>11</v>
       </c>
       <c r="B49" s="3">
-        <v>158.0830513526779</v>
+        <v>422.56413861128112</v>
       </c>
       <c r="C49" s="3">
-        <v>140.2928759072625</v>
+        <v>125.2816511410543</v>
       </c>
       <c r="D49" s="3">
-        <v>7.0695412254694441</v>
+        <v>8.5826459359408158</v>
       </c>
       <c r="E49" s="3">
-        <v>5.7928123010432486</v>
+        <v>7.0326137607312962</v>
       </c>
       <c r="F49" s="3">
-        <v>5.6760338349362813</v>
+        <v>5.8572861675786783</v>
       </c>
       <c r="G49">
-        <v>316.91431462138928</v>
+        <v>569.31833561658618</v>
       </c>
       <c r="H49">
         <v>0.25</v>
@@ -2341,7 +2341,7 @@
         <v>0</v>
       </c>
       <c r="J49">
-        <v>1</v>
+        <v>14</v>
       </c>
       <c r="K49" s="3">
         <v>0</v>
@@ -2355,22 +2355,22 @@
         <v>11</v>
       </c>
       <c r="B50" s="3">
-        <v>158.0830513526779</v>
+        <v>306.28148078410152</v>
       </c>
       <c r="C50" s="3">
-        <v>140.2928759072625</v>
+        <v>51.446613241267769</v>
       </c>
       <c r="D50" s="3">
-        <v>7.0695412254694441</v>
+        <v>48.936191525250571</v>
       </c>
       <c r="E50" s="3">
-        <v>5.7928123010432486</v>
+        <v>67.155981156361833</v>
       </c>
       <c r="F50" s="3">
-        <v>5.6760338349362813</v>
-      </c>
-      <c r="G50">
-        <v>316.91431462138928</v>
+        <v>119.583430744352</v>
+      </c>
+      <c r="G50" s="4">
+        <v>593.40369745133353</v>
       </c>
       <c r="H50">
         <v>0.25</v>
@@ -2379,13 +2379,13 @@
         <v>0</v>
       </c>
       <c r="J50">
-        <v>2</v>
+        <v>20</v>
       </c>
       <c r="K50" s="3">
         <v>0</v>
       </c>
       <c r="L50" t="s">
-        <v>14</v>
+        <v>13</v>
       </c>
     </row>
     <row r="51" spans="1:12" x14ac:dyDescent="0.3">
@@ -2393,22 +2393,22 @@
         <v>11</v>
       </c>
       <c r="B51" s="3">
-        <v>158.0830513526779</v>
+        <v>529.19260559156567</v>
       </c>
       <c r="C51" s="3">
-        <v>140.2928759072625</v>
+        <v>60.926742746307191</v>
       </c>
       <c r="D51" s="3">
-        <v>7.0695412254694441</v>
+        <v>5.5533955000854576</v>
       </c>
       <c r="E51" s="3">
-        <v>5.7928123010432486</v>
+        <v>2.4966844858262389</v>
       </c>
       <c r="F51" s="3">
-        <v>5.6760338349362813</v>
-      </c>
-      <c r="G51">
-        <v>316.91431462138928</v>
+        <v>2.5791346405497362</v>
+      </c>
+      <c r="G51" s="4">
+        <v>600.74856296433427</v>
       </c>
       <c r="H51">
         <v>0.25</v>
@@ -2417,13 +2417,13 @@
         <v>0</v>
       </c>
       <c r="J51">
-        <v>3</v>
+        <v>16</v>
       </c>
       <c r="K51" s="3">
         <v>0</v>
       </c>
       <c r="L51" t="s">
-        <v>14</v>
+        <v>13</v>
       </c>
     </row>
     <row r="52" spans="1:12" x14ac:dyDescent="0.3">
@@ -2431,22 +2431,22 @@
         <v>11</v>
       </c>
       <c r="B52" s="3">
-        <v>158.0830513526779</v>
+        <v>409.93810075165948</v>
       </c>
       <c r="C52" s="3">
-        <v>140.2928759072625</v>
+        <v>176.85805077975471</v>
       </c>
       <c r="D52" s="3">
-        <v>7.0695412254694441</v>
+        <v>6.6704161825997588</v>
       </c>
       <c r="E52" s="3">
-        <v>5.7928123010432486</v>
+        <v>7.414718842808985</v>
       </c>
       <c r="F52" s="3">
-        <v>5.6760338349362813</v>
+        <v>10.466592740564799</v>
       </c>
       <c r="G52">
-        <v>316.91431462138928</v>
+        <v>611.34787929738786</v>
       </c>
       <c r="H52">
         <v>0.25</v>
@@ -2455,7 +2455,7 @@
         <v>0</v>
       </c>
       <c r="J52">
-        <v>4</v>
+        <v>11</v>
       </c>
       <c r="K52" s="3">
         <v>0</v>
@@ -2469,22 +2469,22 @@
         <v>11</v>
       </c>
       <c r="B53" s="3">
-        <v>158.0830513526779</v>
+        <v>529.11061600065455</v>
       </c>
       <c r="C53" s="3">
-        <v>140.2928759072625</v>
+        <v>66.45679515916683</v>
       </c>
       <c r="D53" s="3">
-        <v>7.0695412254694441</v>
+        <v>9.4424113906220164</v>
       </c>
       <c r="E53" s="3">
-        <v>5.7928123010432486</v>
+        <v>4.2644644352908561</v>
       </c>
       <c r="F53" s="3">
-        <v>5.6760338349362813</v>
-      </c>
-      <c r="G53">
-        <v>316.91431462138928</v>
+        <v>7.5826539012990546</v>
+      </c>
+      <c r="G53" s="4">
+        <v>616.85694088703337</v>
       </c>
       <c r="H53">
         <v>0.25</v>
@@ -2493,13 +2493,13 @@
         <v>0</v>
       </c>
       <c r="J53">
-        <v>9</v>
+        <v>7</v>
       </c>
       <c r="K53" s="3">
         <v>0</v>
       </c>
       <c r="L53" t="s">
-        <v>14</v>
+        <v>13</v>
       </c>
     </row>
     <row r="54" spans="1:12" x14ac:dyDescent="0.3">
@@ -2507,22 +2507,22 @@
         <v>11</v>
       </c>
       <c r="B54" s="3">
-        <v>158.0830513526779</v>
+        <v>309.87368123108962</v>
       </c>
       <c r="C54" s="3">
-        <v>140.2928759072625</v>
+        <v>326.31842299747518</v>
       </c>
       <c r="D54" s="3">
-        <v>7.0695412254694441</v>
+        <v>11.01336700466071</v>
       </c>
       <c r="E54" s="3">
-        <v>5.7928123010432486</v>
+        <v>8.5432178910709524</v>
       </c>
       <c r="F54" s="3">
-        <v>5.6760338349362813</v>
-      </c>
-      <c r="G54">
-        <v>316.91431462138928</v>
+        <v>4.2667076388688798</v>
+      </c>
+      <c r="G54" s="4">
+        <v>660.01539676316543</v>
       </c>
       <c r="H54">
         <v>0.25</v>
@@ -2531,13 +2531,13 @@
         <v>0</v>
       </c>
       <c r="J54">
-        <v>12</v>
+        <v>18</v>
       </c>
       <c r="K54" s="3">
         <v>0</v>
       </c>
       <c r="L54" t="s">
-        <v>14</v>
+        <v>13</v>
       </c>
     </row>
     <row r="55" spans="1:12" x14ac:dyDescent="0.3">
@@ -2545,22 +2545,22 @@
         <v>11</v>
       </c>
       <c r="B55" s="3">
-        <v>158.0830513526779</v>
+        <v>493.89074773502978</v>
       </c>
       <c r="C55" s="3">
-        <v>140.2928759072625</v>
+        <v>146.91132817797839</v>
       </c>
       <c r="D55" s="3">
-        <v>7.0695412254694441</v>
+        <v>19.56205569134292</v>
       </c>
       <c r="E55" s="3">
-        <v>5.7928123010432486</v>
+        <v>8.5425636379647312</v>
       </c>
       <c r="F55" s="3">
-        <v>5.6760338349362813</v>
+        <v>8.342631084041038</v>
       </c>
       <c r="G55">
-        <v>316.91431462138928</v>
+        <v>677.24932632635682</v>
       </c>
       <c r="H55">
         <v>0.25</v>
@@ -2569,7 +2569,7 @@
         <v>0</v>
       </c>
       <c r="J55">
-        <v>16</v>
+        <v>15</v>
       </c>
       <c r="K55" s="3">
         <v>0</v>
@@ -2583,22 +2583,22 @@
         <v>11</v>
       </c>
       <c r="B56" s="3">
-        <v>158.0830513526779</v>
+        <v>538.51584768868736</v>
       </c>
       <c r="C56" s="3">
-        <v>140.2928759072625</v>
+        <v>138.02726181896011</v>
       </c>
       <c r="D56" s="3">
-        <v>7.0695412254694441</v>
+        <v>7.650706811451693</v>
       </c>
       <c r="E56" s="3">
-        <v>5.7928123010432486</v>
+        <v>9.1491872035345878</v>
       </c>
       <c r="F56" s="3">
-        <v>5.6760338349362813</v>
-      </c>
-      <c r="G56">
-        <v>316.91431462138928</v>
+        <v>13.634602986789851</v>
+      </c>
+      <c r="G56" s="4">
+        <v>706.97760650942382</v>
       </c>
       <c r="H56">
         <v>0.25</v>
@@ -2607,13 +2607,13 @@
         <v>0</v>
       </c>
       <c r="J56">
-        <v>17</v>
+        <v>19</v>
       </c>
       <c r="K56" s="3">
         <v>0</v>
       </c>
       <c r="L56" t="s">
-        <v>14</v>
+        <v>13</v>
       </c>
     </row>
     <row r="57" spans="1:12" x14ac:dyDescent="0.3">
@@ -2621,22 +2621,22 @@
         <v>11</v>
       </c>
       <c r="B57" s="3">
-        <v>158.0830513526779</v>
+        <v>795.963940455395</v>
       </c>
       <c r="C57" s="3">
-        <v>140.2928759072625</v>
+        <v>49.725233908552902</v>
       </c>
       <c r="D57" s="3">
-        <v>7.0695412254694441</v>
+        <v>11.76217531054079</v>
       </c>
       <c r="E57" s="3">
-        <v>5.7928123010432486</v>
+        <v>4.1562451918293606</v>
       </c>
       <c r="F57" s="3">
-        <v>5.6760338349362813</v>
-      </c>
-      <c r="G57">
-        <v>316.91431462138928</v>
+        <v>3.4821582957502581</v>
+      </c>
+      <c r="G57" s="4">
+        <v>865.08975316206829</v>
       </c>
       <c r="H57">
         <v>0.25</v>
@@ -2645,13 +2645,13 @@
         <v>0</v>
       </c>
       <c r="J57">
-        <v>22</v>
+        <v>2</v>
       </c>
       <c r="K57" s="3">
         <v>0</v>
       </c>
       <c r="L57" t="s">
-        <v>14</v>
+        <v>13</v>
       </c>
     </row>
     <row r="58" spans="1:12" x14ac:dyDescent="0.3">
@@ -2659,22 +2659,22 @@
         <v>11</v>
       </c>
       <c r="B58" s="3">
-        <v>422.56413861128112</v>
+        <v>710.42788422519266</v>
       </c>
       <c r="C58" s="3">
-        <v>125.2816511410543</v>
+        <v>147.4834333527912</v>
       </c>
       <c r="D58" s="3">
-        <v>8.5826459359408158</v>
+        <v>12.96353707256702</v>
       </c>
       <c r="E58" s="3">
-        <v>7.0326137607312962</v>
+        <v>9.1219393962311983</v>
       </c>
       <c r="F58" s="3">
-        <v>5.8572861675786783</v>
-      </c>
-      <c r="G58">
-        <v>569.31833561658618</v>
+        <v>6.2596429017935176</v>
+      </c>
+      <c r="G58" s="4">
+        <v>886.25643694857592</v>
       </c>
       <c r="H58">
         <v>0.25</v>
@@ -2689,7 +2689,7 @@
         <v>0</v>
       </c>
       <c r="L58" t="s">
-        <v>14</v>
+        <v>13</v>
       </c>
     </row>
     <row r="59" spans="1:12" x14ac:dyDescent="0.3">
@@ -2697,22 +2697,22 @@
         <v>11</v>
       </c>
       <c r="B59" s="3">
-        <v>328.9084721030265</v>
+        <v>675.08494190005399</v>
       </c>
       <c r="C59" s="3">
-        <v>104.2916437416557</v>
+        <v>436.2424632714754</v>
       </c>
       <c r="D59" s="3">
-        <v>14.98973665707801</v>
+        <v>14.450403384478159</v>
       </c>
       <c r="E59" s="3">
-        <v>7.8322523107390554</v>
+        <v>17.100801798023699</v>
       </c>
       <c r="F59" s="3">
-        <v>5.9602721294094616</v>
+        <v>14.39304272125929</v>
       </c>
       <c r="G59">
-        <v>461.98237694190863</v>
+        <v>1157.27165307529</v>
       </c>
       <c r="H59">
         <v>0.25</v>
@@ -2721,7 +2721,7 @@
         <v>0</v>
       </c>
       <c r="J59">
-        <v>6</v>
+        <v>10</v>
       </c>
       <c r="K59" s="3">
         <v>0</v>
@@ -2735,22 +2735,22 @@
         <v>11</v>
       </c>
       <c r="B60" s="3">
-        <v>186.806218002669</v>
+        <v>1015.444030923359</v>
       </c>
       <c r="C60" s="3">
-        <v>103.1996996488534</v>
+        <v>127.117264310742</v>
       </c>
       <c r="D60" s="3">
-        <v>5.3180560696121004</v>
+        <v>12.110835852860109</v>
       </c>
       <c r="E60" s="3">
-        <v>5.7906331228855636</v>
+        <v>4.8728691872342136</v>
       </c>
       <c r="F60" s="3">
-        <v>6.2085102087817967</v>
+        <v>5.0227134408120788</v>
       </c>
       <c r="G60">
-        <v>307.32311705280188</v>
+        <v>1164.567713715008</v>
       </c>
       <c r="H60">
         <v>0.25</v>
@@ -2759,7 +2759,7 @@
         <v>0</v>
       </c>
       <c r="J60">
-        <v>5</v>
+        <v>8</v>
       </c>
       <c r="K60" s="3">
         <v>0</v>
@@ -2773,22 +2773,22 @@
         <v>11</v>
       </c>
       <c r="B61" s="3">
-        <v>493.89074773502978</v>
+        <v>1067.4681848483131</v>
       </c>
       <c r="C61" s="3">
-        <v>146.91132817797839</v>
+        <v>86.470425712143708</v>
       </c>
       <c r="D61" s="3">
-        <v>19.56205569134292</v>
+        <v>4.9636343488602339</v>
       </c>
       <c r="E61" s="3">
-        <v>8.5425636379647312</v>
+        <v>6.1799334921040669</v>
       </c>
       <c r="F61" s="3">
-        <v>8.342631084041038</v>
+        <v>3.6722632237199528</v>
       </c>
       <c r="G61">
-        <v>677.24932632635682</v>
+        <v>1168.754441625141</v>
       </c>
       <c r="H61">
         <v>0.25</v>
@@ -2803,7 +2803,7 @@
         <v>0</v>
       </c>
       <c r="L61" t="s">
-        <v>14</v>
+        <v>12</v>
       </c>
     </row>
     <row r="62" spans="1:12" x14ac:dyDescent="0.3">
@@ -2811,22 +2811,22 @@
         <v>11</v>
       </c>
       <c r="B62" s="3">
-        <v>409.93810075165948</v>
+        <v>1129.3362464507229</v>
       </c>
       <c r="C62" s="3">
-        <v>176.85805077975471</v>
+        <v>226.72669515284829</v>
       </c>
       <c r="D62" s="3">
-        <v>6.6704161825997588</v>
+        <v>33.45796845650149</v>
       </c>
       <c r="E62" s="3">
-        <v>7.414718842808985</v>
+        <v>12.87144210824874</v>
       </c>
       <c r="F62" s="3">
-        <v>10.466592740564799</v>
+        <v>18.259071855864971</v>
       </c>
       <c r="G62">
-        <v>611.34787929738786</v>
+        <v>1420.6514240241861</v>
       </c>
       <c r="H62">
         <v>0.25</v>
@@ -2835,7 +2835,7 @@
         <v>0</v>
       </c>
       <c r="J62">
-        <v>11</v>
+        <v>19</v>
       </c>
       <c r="K62" s="3">
         <v>0</v>
@@ -2849,22 +2849,22 @@
         <v>11</v>
       </c>
       <c r="B63" s="3">
-        <v>404.2238881663871</v>
+        <v>1254.7449605554809</v>
       </c>
       <c r="C63" s="3">
-        <v>86.572881192746053</v>
+        <v>172.320086031519</v>
       </c>
       <c r="D63" s="3">
-        <v>22.573280728526569</v>
+        <v>26.383347488318261</v>
       </c>
       <c r="E63" s="3">
-        <v>9.6333603539308683</v>
+        <v>11.9614631575547</v>
       </c>
       <c r="F63" s="3">
-        <v>10.915243634425741</v>
-      </c>
-      <c r="G63">
-        <v>533.91865407601631</v>
+        <v>17.37068650040397</v>
+      </c>
+      <c r="G63" s="4">
+        <v>1482.780543733277</v>
       </c>
       <c r="H63">
         <v>0.25</v>
@@ -2873,13 +2873,13 @@
         <v>0</v>
       </c>
       <c r="J63">
-        <v>18</v>
+        <v>6</v>
       </c>
       <c r="K63" s="3">
         <v>0</v>
       </c>
       <c r="L63" t="s">
-        <v>14</v>
+        <v>13</v>
       </c>
     </row>
     <row r="64" spans="1:12" x14ac:dyDescent="0.3">
@@ -2887,22 +2887,22 @@
         <v>11</v>
       </c>
       <c r="B64" s="3">
-        <v>675.08494190005399</v>
+        <v>1157.1941449262811</v>
       </c>
       <c r="C64" s="3">
-        <v>436.2424632714754</v>
+        <v>242.05497324197819</v>
       </c>
       <c r="D64" s="3">
-        <v>14.450403384478159</v>
+        <v>52.183852165644417</v>
       </c>
       <c r="E64" s="3">
-        <v>17.100801798023699</v>
+        <v>34.238221630313078</v>
       </c>
       <c r="F64" s="3">
-        <v>14.39304272125929</v>
+        <v>25.802918123428231</v>
       </c>
       <c r="G64">
-        <v>1157.27165307529</v>
+        <v>1511.4741100876449</v>
       </c>
       <c r="H64">
         <v>0.25</v>
@@ -2911,13 +2911,13 @@
         <v>0</v>
       </c>
       <c r="J64">
-        <v>10</v>
+        <v>9</v>
       </c>
       <c r="K64" s="3">
         <v>0</v>
       </c>
       <c r="L64" t="s">
-        <v>14</v>
+        <v>12</v>
       </c>
     </row>
     <row r="65" spans="1:12" x14ac:dyDescent="0.3">
@@ -2925,22 +2925,22 @@
         <v>11</v>
       </c>
       <c r="B65" s="3">
-        <v>1129.3362464507229</v>
+        <v>1503.079396992913</v>
       </c>
       <c r="C65" s="3">
-        <v>226.72669515284829</v>
+        <v>79.093942551996832</v>
       </c>
       <c r="D65" s="3">
-        <v>33.45796845650149</v>
+        <v>5.2286145774423041</v>
       </c>
       <c r="E65" s="3">
-        <v>12.87144210824874</v>
+        <v>4.6289802401631706</v>
       </c>
       <c r="F65" s="3">
-        <v>18.259071855864971</v>
-      </c>
-      <c r="G65">
-        <v>1420.6514240241861</v>
+        <v>3.2157781631350701</v>
+      </c>
+      <c r="G65" s="4">
+        <v>1595.246712525651</v>
       </c>
       <c r="H65">
         <v>0.25</v>
@@ -2949,13 +2949,13 @@
         <v>0</v>
       </c>
       <c r="J65">
-        <v>19</v>
+        <v>23</v>
       </c>
       <c r="K65" s="3">
         <v>0</v>
       </c>
       <c r="L65" t="s">
-        <v>14</v>
+        <v>13</v>
       </c>
     </row>
     <row r="66" spans="1:12" x14ac:dyDescent="0.3">
@@ -2963,22 +2963,22 @@
         <v>11</v>
       </c>
       <c r="B66" s="3">
-        <v>320.56798426591018</v>
+        <v>2053.1305719285201</v>
       </c>
       <c r="C66" s="3">
-        <v>135.19543134828299</v>
+        <v>142.66939033961171</v>
       </c>
       <c r="D66" s="3">
-        <v>10.53757897575395</v>
+        <v>12.416090447266379</v>
       </c>
       <c r="E66" s="3">
-        <v>11.893860774628919</v>
+        <v>4.7736605646580799</v>
       </c>
       <c r="F66" s="3">
-        <v>30.052347776706561</v>
+        <v>5.2926632281287578</v>
       </c>
       <c r="G66">
-        <v>508.24720314128268</v>
+        <v>2218.2823765081848</v>
       </c>
       <c r="H66">
         <v>0.25</v>
@@ -2987,7 +2987,7 @@
         <v>0</v>
       </c>
       <c r="J66">
-        <v>7</v>
+        <v>13</v>
       </c>
       <c r="K66" s="3">
         <v>0</v>
@@ -3001,22 +3001,22 @@
         <v>11</v>
       </c>
       <c r="B67" s="3">
-        <v>95.62299966160478</v>
+        <v>8634.4334241478064</v>
       </c>
       <c r="C67" s="3">
-        <v>87.31383103725139</v>
+        <v>1559.6966313291471</v>
       </c>
       <c r="D67" s="3">
-        <v>8.4369804546763589</v>
+        <v>595.17730428795926</v>
       </c>
       <c r="E67" s="3">
-        <v>22.789455019734529</v>
+        <v>387.90335090979988</v>
       </c>
       <c r="F67" s="3">
-        <v>54.926623926138788</v>
+        <v>288.74623970881782</v>
       </c>
       <c r="G67">
-        <v>269.08989009940581</v>
+        <v>11465.956950383519</v>
       </c>
       <c r="H67">
         <v>0.25</v>
@@ -3025,7 +3025,7 @@
         <v>0</v>
       </c>
       <c r="J67">
-        <v>23</v>
+        <v>24</v>
       </c>
       <c r="K67" s="3">
         <v>0</v>
@@ -3039,22 +3039,22 @@
         <v>11</v>
       </c>
       <c r="B68" s="3">
-        <v>8634.4334241478064</v>
+        <v>11305.02986449886</v>
       </c>
       <c r="C68" s="3">
-        <v>1559.6966313291471</v>
+        <v>1118.3253489761651</v>
       </c>
       <c r="D68" s="3">
-        <v>595.17730428795926</v>
+        <v>739.28038815800778</v>
       </c>
       <c r="E68" s="3">
-        <v>387.90335090979988</v>
+        <v>596.65811292167587</v>
       </c>
       <c r="F68" s="3">
-        <v>288.74623970881782</v>
+        <v>440.16371994018562</v>
       </c>
       <c r="G68">
-        <v>11465.956950383519</v>
+        <v>14199.457434494891</v>
       </c>
       <c r="H68">
         <v>0.25</v>
@@ -3063,13 +3063,13 @@
         <v>0</v>
       </c>
       <c r="J68">
-        <v>24</v>
+        <v>21</v>
       </c>
       <c r="K68" s="3">
         <v>0</v>
       </c>
       <c r="L68" t="s">
-        <v>14</v>
+        <v>12</v>
       </c>
     </row>
     <row r="69" spans="1:12" x14ac:dyDescent="0.3">
@@ -3077,22 +3077,22 @@
         <v>11</v>
       </c>
       <c r="B69" s="5">
-        <v>32.194777234472987</v>
+        <v>8.6047739020010283</v>
       </c>
       <c r="C69" s="5">
-        <v>13.23581576194589</v>
+        <v>5.5123269271276927</v>
       </c>
       <c r="D69" s="5">
-        <v>10.912340973082729</v>
+        <v>4.9311246555752524</v>
       </c>
       <c r="E69" s="5">
-        <v>3.2133631755803478</v>
+        <v>2.6735859325931708</v>
       </c>
       <c r="F69" s="5">
-        <v>2.0407696734355949</v>
+        <v>2.0528400422107449</v>
       </c>
       <c r="G69">
-        <v>61.597066818517547</v>
+        <v>23.77465145950789</v>
       </c>
       <c r="H69">
         <v>0.25</v>
@@ -3101,7 +3101,7 @@
         <v>0</v>
       </c>
       <c r="J69">
-        <v>26</v>
+        <v>9</v>
       </c>
       <c r="K69" s="5">
         <v>1</v>
@@ -3115,22 +3115,22 @@
         <v>11</v>
       </c>
       <c r="B70" s="5">
-        <v>8.6047739020010283</v>
+        <v>11.226097366659211</v>
       </c>
       <c r="C70" s="5">
-        <v>5.5123269271276927</v>
+        <v>5.9499561903556328</v>
       </c>
       <c r="D70" s="5">
-        <v>4.9311246555752524</v>
+        <v>3.6043632319429251</v>
       </c>
       <c r="E70" s="5">
-        <v>2.6735859325931708</v>
+        <v>2.6435617907753421</v>
       </c>
       <c r="F70" s="5">
-        <v>2.0528400422107449</v>
+        <v>2.7796140416040109</v>
       </c>
       <c r="G70">
-        <v>23.77465145950789</v>
+        <v>26.203592621337108</v>
       </c>
       <c r="H70">
         <v>0.25</v>
@@ -3139,13 +3139,13 @@
         <v>0</v>
       </c>
       <c r="J70">
-        <v>9</v>
+        <v>17</v>
       </c>
       <c r="K70" s="5">
         <v>1</v>
       </c>
       <c r="L70" t="s">
-        <v>12</v>
+        <v>13</v>
       </c>
     </row>
     <row r="71" spans="1:12" x14ac:dyDescent="0.3">
@@ -3153,22 +3153,22 @@
         <v>11</v>
       </c>
       <c r="B71" s="5">
-        <v>16.744244281963759</v>
+        <v>13.51274952394472</v>
       </c>
       <c r="C71" s="5">
-        <v>9.9445798576465094</v>
+        <v>5.4207381958556171</v>
       </c>
       <c r="D71" s="5">
-        <v>8.7372410885105367</v>
+        <v>5.300870222098423</v>
       </c>
       <c r="E71" s="5">
-        <v>2.499405459487023</v>
+        <v>5.3197686222261833</v>
       </c>
       <c r="F71" s="5">
-        <v>2.0872707338495751</v>
+        <v>4.7384393644041118</v>
       </c>
       <c r="G71">
-        <v>40.012741421457399</v>
+        <v>34.292565928529058</v>
       </c>
       <c r="H71">
         <v>0.25</v>
@@ -3177,7 +3177,7 @@
         <v>0</v>
       </c>
       <c r="J71">
-        <v>14</v>
+        <v>2</v>
       </c>
       <c r="K71" s="5">
         <v>1</v>
@@ -3191,22 +3191,22 @@
         <v>11</v>
       </c>
       <c r="B72" s="5">
-        <v>68.022507797711171</v>
+        <v>17.252463310375209</v>
       </c>
       <c r="C72" s="5">
-        <v>13.786744507177019</v>
+        <v>4.1744554576182464</v>
       </c>
       <c r="D72" s="5">
-        <v>2.6090731047287301</v>
+        <v>9.2999514571303283</v>
       </c>
       <c r="E72" s="5">
-        <v>5.2481342245688101</v>
+        <v>3.707080051168266</v>
       </c>
       <c r="F72" s="5">
-        <v>2.619633665444725</v>
+        <v>3.260148134676538</v>
       </c>
       <c r="G72">
-        <v>92.286093299630465</v>
+        <v>37.694098410968593</v>
       </c>
       <c r="H72">
         <v>0.25</v>
@@ -3215,7 +3215,7 @@
         <v>0</v>
       </c>
       <c r="J72">
-        <v>17</v>
+        <v>11</v>
       </c>
       <c r="K72" s="5">
         <v>1</v>
@@ -3229,22 +3229,22 @@
         <v>11</v>
       </c>
       <c r="B73" s="5">
-        <v>34.730899186053954</v>
+        <v>16.744244281963759</v>
       </c>
       <c r="C73" s="5">
-        <v>11.44451418805644</v>
+        <v>9.9445798576465094</v>
       </c>
       <c r="D73" s="5">
-        <v>6.7409881444358746</v>
+        <v>8.7372410885105367</v>
       </c>
       <c r="E73" s="5">
-        <v>4.0384615234408328</v>
+        <v>2.499405459487023</v>
       </c>
       <c r="F73" s="5">
-        <v>2.8535694028243999</v>
+        <v>2.0872707338495751</v>
       </c>
       <c r="G73">
-        <v>59.808432444811501</v>
+        <v>40.012741421457399</v>
       </c>
       <c r="H73">
         <v>0.25</v>
@@ -3253,7 +3253,7 @@
         <v>0</v>
       </c>
       <c r="J73">
-        <v>5</v>
+        <v>14</v>
       </c>
       <c r="K73" s="5">
         <v>1</v>
@@ -3267,22 +3267,22 @@
         <v>11</v>
       </c>
       <c r="B74" s="5">
-        <v>17.608573973722731</v>
+        <v>10.479694159931</v>
       </c>
       <c r="C74" s="5">
-        <v>54.591086660995273</v>
+        <v>4.7063180583375956</v>
       </c>
       <c r="D74" s="5">
-        <v>15.640476718508831</v>
+        <v>12.994454097945599</v>
       </c>
       <c r="E74" s="5">
-        <v>3.937232139217818</v>
+        <v>8.5387894976625738</v>
       </c>
       <c r="F74" s="5">
-        <v>3.0900238574613028</v>
+        <v>3.9358734213870772</v>
       </c>
       <c r="G74">
-        <v>94.867393349905939</v>
+        <v>40.655129235263843</v>
       </c>
       <c r="H74">
         <v>0.25</v>
@@ -3291,7 +3291,7 @@
         <v>0</v>
       </c>
       <c r="J74">
-        <v>22</v>
+        <v>19</v>
       </c>
       <c r="K74" s="5">
         <v>1</v>
@@ -3305,22 +3305,22 @@
         <v>11</v>
       </c>
       <c r="B75" s="5">
-        <v>17.252463310375209</v>
+        <v>15.076388297347259</v>
       </c>
       <c r="C75" s="5">
-        <v>4.1744554576182464</v>
+        <v>6.4497384514335341</v>
       </c>
       <c r="D75" s="5">
-        <v>9.2999514571303283</v>
+        <v>6.4209491642099401</v>
       </c>
       <c r="E75" s="5">
-        <v>3.707080051168266</v>
+        <v>12.32951193370887</v>
       </c>
       <c r="F75" s="5">
-        <v>3.260148134676538</v>
+        <v>9.4586236779664006</v>
       </c>
       <c r="G75">
-        <v>37.694098410968593</v>
+        <v>49.735211524666013</v>
       </c>
       <c r="H75">
         <v>0.25</v>
@@ -3329,7 +3329,7 @@
         <v>0</v>
       </c>
       <c r="J75">
-        <v>11</v>
+        <v>28</v>
       </c>
       <c r="K75" s="5">
         <v>1</v>
@@ -3381,22 +3381,22 @@
         <v>11</v>
       </c>
       <c r="B77" s="5">
-        <v>24.62737455256638</v>
+        <v>22.609443138149189</v>
       </c>
       <c r="C77" s="5">
-        <v>12.730976347102899</v>
+        <v>8.2463787296413962</v>
       </c>
       <c r="D77" s="5">
-        <v>36.454081460368798</v>
+        <v>15.535000592788981</v>
       </c>
       <c r="E77" s="5">
-        <v>9.2943484152304006</v>
+        <v>6.0624875706687611</v>
       </c>
       <c r="F77" s="5">
-        <v>3.654034679693658</v>
+        <v>7.2119821169853822</v>
       </c>
       <c r="G77">
-        <v>86.760815454962142</v>
+        <v>59.665292148233711</v>
       </c>
       <c r="H77">
         <v>0.25</v>
@@ -3405,7 +3405,7 @@
         <v>0</v>
       </c>
       <c r="J77">
-        <v>15</v>
+        <v>3</v>
       </c>
       <c r="K77" s="5">
         <v>1</v>
@@ -3419,22 +3419,22 @@
         <v>11</v>
       </c>
       <c r="B78" s="5">
-        <v>10.479694159931</v>
+        <v>34.730899186053954</v>
       </c>
       <c r="C78" s="5">
-        <v>4.7063180583375956</v>
+        <v>11.44451418805644</v>
       </c>
       <c r="D78" s="5">
-        <v>12.994454097945599</v>
+        <v>6.7409881444358746</v>
       </c>
       <c r="E78" s="5">
-        <v>8.5387894976625738</v>
+        <v>4.0384615234408328</v>
       </c>
       <c r="F78" s="5">
-        <v>3.9358734213870772</v>
+        <v>2.8535694028243999</v>
       </c>
       <c r="G78">
-        <v>40.655129235263843</v>
+        <v>59.808432444811501</v>
       </c>
       <c r="H78">
         <v>0.25</v>
@@ -3443,7 +3443,7 @@
         <v>0</v>
       </c>
       <c r="J78">
-        <v>19</v>
+        <v>5</v>
       </c>
       <c r="K78" s="5">
         <v>1</v>
@@ -3457,22 +3457,22 @@
         <v>11</v>
       </c>
       <c r="B79" s="5">
-        <v>21.053090674317691</v>
+        <v>24.624215889551991</v>
       </c>
       <c r="C79" s="5">
-        <v>17.12599619513697</v>
+        <v>9.3779118342614716</v>
       </c>
       <c r="D79" s="5">
-        <v>73.50016877536838</v>
+        <v>10.36399745326038</v>
       </c>
       <c r="E79" s="5">
-        <v>8.6025482893457301</v>
+        <v>10.593269859414701</v>
       </c>
       <c r="F79" s="5">
-        <v>4.013168716050755</v>
+        <v>5.7978262934889866</v>
       </c>
       <c r="G79">
-        <v>124.29497265021961</v>
+        <v>60.75722132997754</v>
       </c>
       <c r="H79">
         <v>0.25</v>
@@ -3481,7 +3481,7 @@
         <v>0</v>
       </c>
       <c r="J79">
-        <v>23</v>
+        <v>1</v>
       </c>
       <c r="K79" s="5">
         <v>1</v>
@@ -3495,22 +3495,22 @@
         <v>11</v>
       </c>
       <c r="B80" s="5">
-        <v>13.51274952394472</v>
+        <v>32.194777234472987</v>
       </c>
       <c r="C80" s="5">
-        <v>5.4207381958556171</v>
+        <v>13.23581576194589</v>
       </c>
       <c r="D80" s="5">
-        <v>5.300870222098423</v>
+        <v>10.912340973082729</v>
       </c>
       <c r="E80" s="5">
-        <v>5.3197686222261833</v>
+        <v>3.2133631755803478</v>
       </c>
       <c r="F80" s="5">
-        <v>4.7384393644041118</v>
+        <v>2.0407696734355949</v>
       </c>
       <c r="G80">
-        <v>34.292565928529058</v>
+        <v>61.597066818517547</v>
       </c>
       <c r="H80">
         <v>0.25</v>
@@ -3519,7 +3519,7 @@
         <v>0</v>
       </c>
       <c r="J80">
-        <v>2</v>
+        <v>26</v>
       </c>
       <c r="K80" s="5">
         <v>1</v>
@@ -3533,22 +3533,22 @@
         <v>11</v>
       </c>
       <c r="B81" s="5">
-        <v>17.366637736665329</v>
+        <v>56.434086872460611</v>
       </c>
       <c r="C81" s="5">
-        <v>22.869272908297461</v>
+        <v>6.4618755879678282</v>
       </c>
       <c r="D81" s="5">
-        <v>78.154466834193613</v>
+        <v>4.9231239518564616</v>
       </c>
       <c r="E81" s="5">
-        <v>8.9828949128626494</v>
+        <v>6.266903489725995</v>
       </c>
       <c r="F81" s="5">
-        <v>5.2457373921192278</v>
+        <v>6.9420438704806138</v>
       </c>
       <c r="G81">
-        <v>132.61900978413831</v>
+        <v>81.028033772491483</v>
       </c>
       <c r="H81">
         <v>0.25</v>
@@ -3557,7 +3557,7 @@
         <v>0</v>
       </c>
       <c r="J81">
-        <v>13</v>
+        <v>24</v>
       </c>
       <c r="K81" s="5">
         <v>1</v>
@@ -3571,22 +3571,22 @@
         <v>11</v>
       </c>
       <c r="B82" s="5">
-        <v>24.624215889551991</v>
+        <v>24.62737455256638</v>
       </c>
       <c r="C82" s="5">
-        <v>9.3779118342614716</v>
+        <v>12.730976347102899</v>
       </c>
       <c r="D82" s="5">
-        <v>10.36399745326038</v>
+        <v>36.454081460368798</v>
       </c>
       <c r="E82" s="5">
-        <v>10.593269859414701</v>
+        <v>9.2943484152304006</v>
       </c>
       <c r="F82" s="5">
-        <v>5.7978262934889866</v>
+        <v>3.654034679693658</v>
       </c>
       <c r="G82">
-        <v>60.75722132997754</v>
+        <v>86.760815454962142</v>
       </c>
       <c r="H82">
         <v>0.25</v>
@@ -3595,7 +3595,7 @@
         <v>0</v>
       </c>
       <c r="J82">
-        <v>1</v>
+        <v>15</v>
       </c>
       <c r="K82" s="5">
         <v>1</v>
@@ -3609,22 +3609,22 @@
         <v>11</v>
       </c>
       <c r="B83" s="5">
-        <v>227.48541361560581</v>
+        <v>58.426053720720112</v>
       </c>
       <c r="C83" s="5">
-        <v>56.10859153144893</v>
+        <v>15.8892468291016</v>
       </c>
       <c r="D83" s="5">
-        <v>20.68580871360523</v>
+        <v>4.6824609993926174</v>
       </c>
       <c r="E83" s="5">
-        <v>13.02669248731716</v>
+        <v>5.0021042196845817</v>
       </c>
       <c r="F83" s="5">
-        <v>6.2662291385588667</v>
+        <v>4.4065556214765476</v>
       </c>
       <c r="G83">
-        <v>323.57273548653598</v>
+        <v>88.406421390375456</v>
       </c>
       <c r="H83">
         <v>0.25</v>
@@ -3633,13 +3633,13 @@
         <v>0</v>
       </c>
       <c r="J83">
-        <v>27</v>
+        <v>10</v>
       </c>
       <c r="K83" s="5">
         <v>1</v>
       </c>
       <c r="L83" t="s">
-        <v>12</v>
+        <v>14</v>
       </c>
     </row>
     <row r="84" spans="1:12" x14ac:dyDescent="0.3">
@@ -3647,22 +3647,22 @@
         <v>11</v>
       </c>
       <c r="B84" s="5">
-        <v>168.0714195701774</v>
+        <v>68.022507797711171</v>
       </c>
       <c r="C84" s="5">
-        <v>40.381046712236333</v>
+        <v>13.786744507177019</v>
       </c>
       <c r="D84" s="5">
-        <v>13.15159381638688</v>
+        <v>2.6090731047287301</v>
       </c>
       <c r="E84" s="5">
-        <v>8.6365769958211285</v>
+        <v>5.2481342245688101</v>
       </c>
       <c r="F84" s="5">
-        <v>6.443499834698093</v>
+        <v>2.619633665444725</v>
       </c>
       <c r="G84">
-        <v>236.68413692931989</v>
+        <v>92.286093299630465</v>
       </c>
       <c r="H84">
         <v>0.25</v>
@@ -3671,7 +3671,7 @@
         <v>0</v>
       </c>
       <c r="J84">
-        <v>21</v>
+        <v>17</v>
       </c>
       <c r="K84" s="5">
         <v>1</v>
@@ -3685,22 +3685,22 @@
         <v>11</v>
       </c>
       <c r="B85" s="5">
-        <v>56.434086872460611</v>
+        <v>17.608573973722731</v>
       </c>
       <c r="C85" s="5">
-        <v>6.4618755879678282</v>
+        <v>54.591086660995273</v>
       </c>
       <c r="D85" s="5">
-        <v>4.9231239518564616</v>
+        <v>15.640476718508831</v>
       </c>
       <c r="E85" s="5">
-        <v>6.266903489725995</v>
+        <v>3.937232139217818</v>
       </c>
       <c r="F85" s="5">
-        <v>6.9420438704806138</v>
+        <v>3.0900238574613028</v>
       </c>
       <c r="G85">
-        <v>81.028033772491483</v>
+        <v>94.867393349905939</v>
       </c>
       <c r="H85">
         <v>0.25</v>
@@ -3709,7 +3709,7 @@
         <v>0</v>
       </c>
       <c r="J85">
-        <v>24</v>
+        <v>22</v>
       </c>
       <c r="K85" s="5">
         <v>1</v>
@@ -3723,22 +3723,22 @@
         <v>11</v>
       </c>
       <c r="B86" s="5">
-        <v>22.609443138149189</v>
+        <v>100.3102530063436</v>
       </c>
       <c r="C86" s="5">
-        <v>8.2463787296413962</v>
+        <v>8.8087371500902947</v>
       </c>
       <c r="D86" s="5">
-        <v>15.535000592788981</v>
+        <v>2.9170397254318989</v>
       </c>
       <c r="E86" s="5">
-        <v>6.0624875706687611</v>
+        <v>2.5657088532171319</v>
       </c>
       <c r="F86" s="5">
-        <v>7.2119821169853822</v>
+        <v>4.8764473028554551</v>
       </c>
       <c r="G86">
-        <v>59.665292148233711</v>
+        <v>119.4781860379384</v>
       </c>
       <c r="H86">
         <v>0.25</v>
@@ -3747,13 +3747,13 @@
         <v>0</v>
       </c>
       <c r="J86">
-        <v>3</v>
+        <v>19</v>
       </c>
       <c r="K86" s="5">
         <v>1</v>
       </c>
       <c r="L86" t="s">
-        <v>12</v>
+        <v>13</v>
       </c>
     </row>
     <row r="87" spans="1:12" x14ac:dyDescent="0.3">
@@ -3761,22 +3761,22 @@
         <v>11</v>
       </c>
       <c r="B87" s="5">
-        <v>214.39964573353379</v>
+        <v>70.984669311566165</v>
       </c>
       <c r="C87" s="5">
-        <v>9.9910784607887617</v>
+        <v>21.316834875754981</v>
       </c>
       <c r="D87" s="5">
-        <v>38.404215137153528</v>
+        <v>15.61540734173939</v>
       </c>
       <c r="E87" s="5">
-        <v>11.22288478018312</v>
+        <v>8.8828285999925534</v>
       </c>
       <c r="F87" s="5">
-        <v>7.2482644243386698</v>
+        <v>5.4797017078686192</v>
       </c>
       <c r="G87">
-        <v>281.26608853599782</v>
+        <v>122.27944183692171</v>
       </c>
       <c r="H87">
         <v>0.25</v>
@@ -3785,13 +3785,13 @@
         <v>0</v>
       </c>
       <c r="J87">
-        <v>25</v>
+        <v>28</v>
       </c>
       <c r="K87" s="5">
         <v>1</v>
       </c>
       <c r="L87" t="s">
-        <v>12</v>
+        <v>13</v>
       </c>
     </row>
     <row r="88" spans="1:12" x14ac:dyDescent="0.3">
@@ -3799,22 +3799,22 @@
         <v>11</v>
       </c>
       <c r="B88" s="5">
-        <v>15.076388297347259</v>
+        <v>21.053090674317691</v>
       </c>
       <c r="C88" s="5">
-        <v>6.4497384514335341</v>
+        <v>17.12599619513697</v>
       </c>
       <c r="D88" s="5">
-        <v>6.4209491642099401</v>
+        <v>73.50016877536838</v>
       </c>
       <c r="E88" s="5">
-        <v>12.32951193370887</v>
+        <v>8.6025482893457301</v>
       </c>
       <c r="F88" s="5">
-        <v>9.4586236779664006</v>
+        <v>4.013168716050755</v>
       </c>
       <c r="G88">
-        <v>49.735211524666013</v>
+        <v>124.29497265021961</v>
       </c>
       <c r="H88">
         <v>0.25</v>
@@ -3823,7 +3823,7 @@
         <v>0</v>
       </c>
       <c r="J88">
-        <v>28</v>
+        <v>23</v>
       </c>
       <c r="K88" s="5">
         <v>1</v>
@@ -3837,22 +3837,22 @@
         <v>11</v>
       </c>
       <c r="B89" s="5">
-        <v>85.887316356946101</v>
+        <v>90.816642319005268</v>
       </c>
       <c r="C89" s="5">
-        <v>147.35411736457041</v>
+        <v>23.828793724048811</v>
       </c>
       <c r="D89" s="5">
-        <v>30.347374749816279</v>
+        <v>6.5875071294671699</v>
       </c>
       <c r="E89" s="5">
-        <v>18.473247908183112</v>
+        <v>4.3957436067480824</v>
       </c>
       <c r="F89" s="5">
-        <v>11.247784571203001</v>
+        <v>4.3859186586884658</v>
       </c>
       <c r="G89">
-        <v>293.30984095071892</v>
+        <v>130.01460543795781</v>
       </c>
       <c r="H89">
         <v>0.25</v>
@@ -3861,13 +3861,13 @@
         <v>0</v>
       </c>
       <c r="J89">
-        <v>10</v>
+        <v>1</v>
       </c>
       <c r="K89" s="5">
         <v>1</v>
       </c>
       <c r="L89" t="s">
-        <v>12</v>
+        <v>13</v>
       </c>
     </row>
     <row r="90" spans="1:12" x14ac:dyDescent="0.3">
@@ -3875,22 +3875,22 @@
         <v>11</v>
       </c>
       <c r="B90" s="5">
-        <v>1612.912261157102</v>
+        <v>17.366637736665329</v>
       </c>
       <c r="C90" s="5">
-        <v>276.77622135061489</v>
+        <v>22.869272908297461</v>
       </c>
       <c r="D90" s="5">
-        <v>38.480361218740953</v>
+        <v>78.154466834193613</v>
       </c>
       <c r="E90" s="5">
-        <v>20.65108262682115</v>
+        <v>8.9828949128626494</v>
       </c>
       <c r="F90" s="5">
-        <v>11.31451051742498</v>
+        <v>5.2457373921192278</v>
       </c>
       <c r="G90">
-        <v>1960.1344368707039</v>
+        <v>132.61900978413831</v>
       </c>
       <c r="H90">
         <v>0.25</v>
@@ -3899,7 +3899,7 @@
         <v>0</v>
       </c>
       <c r="J90">
-        <v>18</v>
+        <v>13</v>
       </c>
       <c r="K90" s="5">
         <v>1</v>
@@ -3913,22 +3913,22 @@
         <v>11</v>
       </c>
       <c r="B91" s="5">
-        <v>412.81570859962989</v>
+        <v>12.53809718588507</v>
       </c>
       <c r="C91" s="5">
-        <v>86.371888999385192</v>
+        <v>15.81910389664729</v>
       </c>
       <c r="D91" s="5">
-        <v>34.851202681725447</v>
+        <v>11.726134209964821</v>
       </c>
       <c r="E91" s="5">
-        <v>16.054005276993749</v>
+        <v>31.43535005828355</v>
       </c>
       <c r="F91" s="5">
-        <v>13.58234734369543</v>
+        <v>61.444327639039763</v>
       </c>
       <c r="G91">
-        <v>563.67515290142978</v>
+        <v>132.9630129898205</v>
       </c>
       <c r="H91">
         <v>0.25</v>
@@ -3937,7 +3937,7 @@
         <v>0</v>
       </c>
       <c r="J91">
-        <v>20</v>
+        <v>6</v>
       </c>
       <c r="K91" s="5">
         <v>1</v>
@@ -3951,22 +3951,22 @@
         <v>11</v>
       </c>
       <c r="B92" s="5">
-        <v>12.53809718588507</v>
+        <v>69.096907979055743</v>
       </c>
       <c r="C92" s="5">
-        <v>15.81910389664729</v>
+        <v>39.917677031014328</v>
       </c>
       <c r="D92" s="5">
-        <v>11.726134209964821</v>
+        <v>29.9149219981168</v>
       </c>
       <c r="E92" s="5">
-        <v>31.43535005828355</v>
+        <v>23.37880887850692</v>
       </c>
       <c r="F92" s="5">
-        <v>61.444327639039763</v>
+        <v>15.6194951554734</v>
       </c>
       <c r="G92">
-        <v>132.9630129898205</v>
+        <v>177.92781104216721</v>
       </c>
       <c r="H92">
         <v>0.25</v>
@@ -3975,13 +3975,13 @@
         <v>0</v>
       </c>
       <c r="J92">
-        <v>6</v>
+        <v>15</v>
       </c>
       <c r="K92" s="5">
         <v>1</v>
       </c>
       <c r="L92" t="s">
-        <v>12</v>
+        <v>13</v>
       </c>
     </row>
     <row r="93" spans="1:12" x14ac:dyDescent="0.3">
@@ -3989,22 +3989,22 @@
         <v>11</v>
       </c>
       <c r="B93" s="5">
-        <v>422.35039357089732</v>
+        <v>132.1459270823411</v>
       </c>
       <c r="C93" s="5">
-        <v>74.595142255641406</v>
+        <v>22.36101839167468</v>
       </c>
       <c r="D93" s="5">
-        <v>8.2428734003640809</v>
+        <v>14.1125092603934</v>
       </c>
       <c r="E93" s="5">
-        <v>2.430649949772234</v>
+        <v>9.6773391488062046</v>
       </c>
       <c r="F93" s="5">
-        <v>1.718511084201938</v>
+        <v>9.6295435981926296</v>
       </c>
       <c r="G93">
-        <v>509.33757026087699</v>
+        <v>187.92633748140801</v>
       </c>
       <c r="H93">
         <v>0.25</v>
@@ -4013,7 +4013,7 @@
         <v>0</v>
       </c>
       <c r="J93">
-        <v>6</v>
+        <v>4</v>
       </c>
       <c r="K93" s="5">
         <v>1</v>
@@ -4027,22 +4027,22 @@
         <v>11</v>
       </c>
       <c r="B94" s="5">
-        <v>11.226097366659211</v>
+        <v>155.91106923942311</v>
       </c>
       <c r="C94" s="5">
-        <v>5.9499561903556328</v>
+        <v>22.721152612083639</v>
       </c>
       <c r="D94" s="5">
-        <v>3.6043632319429251</v>
+        <v>9.0241563728842351</v>
       </c>
       <c r="E94" s="5">
-        <v>2.6435617907753421</v>
+        <v>17.298216425161431</v>
       </c>
       <c r="F94" s="5">
-        <v>2.7796140416040109</v>
+        <v>18.09238485321746</v>
       </c>
       <c r="G94">
-        <v>26.203592621337108</v>
+        <v>223.04697950276989</v>
       </c>
       <c r="H94">
         <v>0.25</v>
@@ -4051,7 +4051,7 @@
         <v>0</v>
       </c>
       <c r="J94">
-        <v>17</v>
+        <v>9</v>
       </c>
       <c r="K94" s="5">
         <v>1</v>
@@ -4065,22 +4065,22 @@
         <v>11</v>
       </c>
       <c r="B95" s="5">
-        <v>90.816642319005268</v>
+        <v>168.0714195701774</v>
       </c>
       <c r="C95" s="5">
-        <v>23.828793724048811</v>
+        <v>40.381046712236333</v>
       </c>
       <c r="D95" s="5">
-        <v>6.5875071294671699</v>
+        <v>13.15159381638688</v>
       </c>
       <c r="E95" s="5">
-        <v>4.3957436067480824</v>
+        <v>8.6365769958211285</v>
       </c>
       <c r="F95" s="5">
-        <v>4.3859186586884658</v>
+        <v>6.443499834698093</v>
       </c>
       <c r="G95">
-        <v>130.01460543795781</v>
+        <v>236.68413692931989</v>
       </c>
       <c r="H95">
         <v>0.25</v>
@@ -4089,13 +4089,13 @@
         <v>0</v>
       </c>
       <c r="J95">
-        <v>1</v>
+        <v>21</v>
       </c>
       <c r="K95" s="5">
         <v>1</v>
       </c>
       <c r="L95" t="s">
-        <v>13</v>
+        <v>12</v>
       </c>
     </row>
     <row r="96" spans="1:12" x14ac:dyDescent="0.3">
@@ -4103,22 +4103,22 @@
         <v>11</v>
       </c>
       <c r="B96" s="5">
-        <v>100.3102530063436</v>
+        <v>175.781233405943</v>
       </c>
       <c r="C96" s="5">
-        <v>8.8087371500902947</v>
+        <v>40.158964634924153</v>
       </c>
       <c r="D96" s="5">
-        <v>2.9170397254318989</v>
+        <v>22.308672294144561</v>
       </c>
       <c r="E96" s="5">
-        <v>2.5657088532171319</v>
+        <v>10.76209193863901</v>
       </c>
       <c r="F96" s="5">
-        <v>4.8764473028554551</v>
+        <v>5.9910715502380629</v>
       </c>
       <c r="G96">
-        <v>119.4781860379384</v>
+        <v>255.00203382388881</v>
       </c>
       <c r="H96">
         <v>0.25</v>
@@ -4127,13 +4127,13 @@
         <v>0</v>
       </c>
       <c r="J96">
-        <v>19</v>
+        <v>22</v>
       </c>
       <c r="K96" s="5">
         <v>1</v>
       </c>
       <c r="L96" t="s">
-        <v>13</v>
+        <v>14</v>
       </c>
     </row>
     <row r="97" spans="1:12" x14ac:dyDescent="0.3">
@@ -4141,22 +4141,22 @@
         <v>11</v>
       </c>
       <c r="B97" s="5">
-        <v>735.89465957104562</v>
+        <v>219.61303233731019</v>
       </c>
       <c r="C97" s="5">
-        <v>130.32923965232069</v>
+        <v>23.858593790190159</v>
       </c>
       <c r="D97" s="5">
-        <v>16.214145739347241</v>
+        <v>10.49234138285861</v>
       </c>
       <c r="E97" s="5">
-        <v>4.9688310798218849</v>
+        <v>8.0472295025197322</v>
       </c>
       <c r="F97" s="5">
-        <v>4.9461946315322196</v>
+        <v>8.1486817682676982</v>
       </c>
       <c r="G97">
-        <v>892.35307067406802</v>
+        <v>270.15987878114629</v>
       </c>
       <c r="H97">
         <v>0.25</v>
@@ -4165,13 +4165,13 @@
         <v>0</v>
       </c>
       <c r="J97">
-        <v>20</v>
+        <v>24</v>
       </c>
       <c r="K97" s="5">
         <v>1</v>
       </c>
       <c r="L97" t="s">
-        <v>13</v>
+        <v>14</v>
       </c>
     </row>
     <row r="98" spans="1:12" x14ac:dyDescent="0.3">
@@ -4179,22 +4179,22 @@
         <v>11</v>
       </c>
       <c r="B98" s="5">
-        <v>70.984669311566165</v>
+        <v>180.34227721677499</v>
       </c>
       <c r="C98" s="5">
-        <v>21.316834875754981</v>
+        <v>50.435833767242492</v>
       </c>
       <c r="D98" s="5">
-        <v>15.61540734173939</v>
+        <v>10.925041689902971</v>
       </c>
       <c r="E98" s="5">
-        <v>8.8828285999925534</v>
+        <v>15.65484903507499</v>
       </c>
       <c r="F98" s="5">
-        <v>5.4797017078686192</v>
+        <v>22.507188950098101</v>
       </c>
       <c r="G98">
-        <v>122.27944183692171</v>
+        <v>279.86519065909351</v>
       </c>
       <c r="H98">
         <v>0.25</v>
@@ -4203,7 +4203,7 @@
         <v>0</v>
       </c>
       <c r="J98">
-        <v>28</v>
+        <v>26</v>
       </c>
       <c r="K98" s="5">
         <v>1</v>
@@ -4217,22 +4217,22 @@
         <v>11</v>
       </c>
       <c r="B99" s="5">
-        <v>333.8615175446555</v>
+        <v>214.39964573353379</v>
       </c>
       <c r="C99" s="5">
-        <v>120.0783762284607</v>
+        <v>9.9910784607887617</v>
       </c>
       <c r="D99" s="5">
-        <v>19.864200183149759</v>
+        <v>38.404215137153528</v>
       </c>
       <c r="E99" s="5">
-        <v>7.4757221930909781</v>
+        <v>11.22288478018312</v>
       </c>
       <c r="F99" s="5">
-        <v>5.7355171899519863</v>
+        <v>7.2482644243386698</v>
       </c>
       <c r="G99">
-        <v>487.015333339309</v>
+        <v>281.26608853599782</v>
       </c>
       <c r="H99">
         <v>0.25</v>
@@ -4241,13 +4241,13 @@
         <v>0</v>
       </c>
       <c r="J99">
-        <v>2</v>
+        <v>25</v>
       </c>
       <c r="K99" s="5">
         <v>1</v>
       </c>
       <c r="L99" t="s">
-        <v>13</v>
+        <v>12</v>
       </c>
     </row>
     <row r="100" spans="1:12" x14ac:dyDescent="0.3">
@@ -4255,22 +4255,22 @@
         <v>11</v>
       </c>
       <c r="B100" s="5">
-        <v>1387.3558194004161</v>
+        <v>85.887316356946101</v>
       </c>
       <c r="C100" s="5">
-        <v>468.22500312342379</v>
+        <v>147.35411736457041</v>
       </c>
       <c r="D100" s="5">
-        <v>106.3344108006165</v>
+        <v>30.347374749816279</v>
       </c>
       <c r="E100" s="5">
-        <v>21.162692540401121</v>
+        <v>18.473247908183112</v>
       </c>
       <c r="F100" s="5">
-        <v>6.0526764913916757</v>
+        <v>11.247784571203001</v>
       </c>
       <c r="G100">
-        <v>1989.130602356249</v>
+        <v>293.30984095071892</v>
       </c>
       <c r="H100">
         <v>0.25</v>
@@ -4279,13 +4279,13 @@
         <v>0</v>
       </c>
       <c r="J100">
-        <v>13</v>
+        <v>10</v>
       </c>
       <c r="K100" s="5">
         <v>1</v>
       </c>
       <c r="L100" t="s">
-        <v>13</v>
+        <v>12</v>
       </c>
     </row>
     <row r="101" spans="1:12" x14ac:dyDescent="0.3">
@@ -4293,22 +4293,22 @@
         <v>11</v>
       </c>
       <c r="B101" s="5">
-        <v>670.27723679236976</v>
+        <v>227.48541361560581</v>
       </c>
       <c r="C101" s="5">
-        <v>212.54208591580391</v>
+        <v>56.10859153144893</v>
       </c>
       <c r="D101" s="5">
-        <v>31.658095586502871</v>
+        <v>20.68580871360523</v>
       </c>
       <c r="E101" s="5">
-        <v>12.06389864321117</v>
+        <v>13.02669248731716</v>
       </c>
       <c r="F101" s="5">
-        <v>6.2944229132268479</v>
+        <v>6.2662291385588667</v>
       </c>
       <c r="G101">
-        <v>932.83573985111445</v>
+        <v>323.57273548653598</v>
       </c>
       <c r="H101">
         <v>0.25</v>
@@ -4317,13 +4317,13 @@
         <v>0</v>
       </c>
       <c r="J101">
-        <v>24</v>
+        <v>27</v>
       </c>
       <c r="K101" s="5">
         <v>1</v>
       </c>
       <c r="L101" t="s">
-        <v>13</v>
+        <v>12</v>
       </c>
     </row>
     <row r="102" spans="1:12" x14ac:dyDescent="0.3">
@@ -4331,22 +4331,22 @@
         <v>11</v>
       </c>
       <c r="B102" s="5">
-        <v>463.50583848849971</v>
+        <v>236.01823248765089</v>
       </c>
       <c r="C102" s="5">
-        <v>45.137596218474513</v>
+        <v>62.620732076036347</v>
       </c>
       <c r="D102" s="5">
-        <v>9.0210192342320674</v>
+        <v>12.403812134817001</v>
       </c>
       <c r="E102" s="5">
-        <v>7.0349782901740747</v>
+        <v>8.0935910702619651</v>
       </c>
       <c r="F102" s="5">
-        <v>7.8315127576279204</v>
+        <v>6.8376966029906354</v>
       </c>
       <c r="G102">
-        <v>532.53094498900828</v>
+        <v>325.97406437175681</v>
       </c>
       <c r="H102">
         <v>0.25</v>
@@ -4355,13 +4355,13 @@
         <v>0</v>
       </c>
       <c r="J102">
-        <v>23</v>
+        <v>2</v>
       </c>
       <c r="K102" s="5">
         <v>1</v>
       </c>
       <c r="L102" t="s">
-        <v>13</v>
+        <v>14</v>
       </c>
     </row>
     <row r="103" spans="1:12" x14ac:dyDescent="0.3">
@@ -4369,22 +4369,22 @@
         <v>11</v>
       </c>
       <c r="B103" s="5">
-        <v>1066.856479198789</v>
+        <v>280.03150839186219</v>
       </c>
       <c r="C103" s="5">
-        <v>226.76536324561229</v>
+        <v>48.294461237179362</v>
       </c>
       <c r="D103" s="5">
-        <v>23.3146558720833</v>
+        <v>6.1314325283405342</v>
       </c>
       <c r="E103" s="5">
-        <v>8.7664401816601014</v>
+        <v>7.083352164625162</v>
       </c>
       <c r="F103" s="5">
-        <v>7.887240726240309</v>
+        <v>10.02106068836383</v>
       </c>
       <c r="G103">
-        <v>1333.5901792243851</v>
+        <v>351.56181501037111</v>
       </c>
       <c r="H103">
         <v>0.25</v>
@@ -4393,7 +4393,7 @@
         <v>0</v>
       </c>
       <c r="J103">
-        <v>12</v>
+        <v>10</v>
       </c>
       <c r="K103" s="5">
         <v>1</v>
@@ -4407,22 +4407,22 @@
         <v>11</v>
       </c>
       <c r="B104" s="5">
-        <v>132.1459270823411</v>
+        <v>230.53107728285019</v>
       </c>
       <c r="C104" s="5">
-        <v>22.36101839167468</v>
+        <v>52.045062858625478</v>
       </c>
       <c r="D104" s="5">
-        <v>14.1125092603934</v>
+        <v>11.106231766277631</v>
       </c>
       <c r="E104" s="5">
-        <v>9.6773391488062046</v>
+        <v>22.579312418156551</v>
       </c>
       <c r="F104" s="5">
-        <v>9.6295435981926296</v>
+        <v>37.290198446802243</v>
       </c>
       <c r="G104">
-        <v>187.92633748140801</v>
+        <v>353.55188277271208</v>
       </c>
       <c r="H104">
         <v>0.25</v>
@@ -4431,13 +4431,13 @@
         <v>0</v>
       </c>
       <c r="J104">
-        <v>4</v>
+        <v>11</v>
       </c>
       <c r="K104" s="5">
         <v>1</v>
       </c>
       <c r="L104" t="s">
-        <v>13</v>
+        <v>14</v>
       </c>
     </row>
     <row r="105" spans="1:12" x14ac:dyDescent="0.3">
@@ -4445,22 +4445,22 @@
         <v>11</v>
       </c>
       <c r="B105" s="5">
-        <v>280.03150839186219</v>
+        <v>271.18622475515838</v>
       </c>
       <c r="C105" s="5">
-        <v>48.294461237179362</v>
+        <v>70.822291292401076</v>
       </c>
       <c r="D105" s="5">
-        <v>6.1314325283405342</v>
+        <v>11.40858849343107</v>
       </c>
       <c r="E105" s="5">
-        <v>7.083352164625162</v>
+        <v>7.3318808776159088</v>
       </c>
       <c r="F105" s="5">
-        <v>10.02106068836383</v>
+        <v>5.8187051341433156</v>
       </c>
       <c r="G105">
-        <v>351.56181501037111</v>
+        <v>366.56769055274981</v>
       </c>
       <c r="H105">
         <v>0.25</v>
@@ -4469,13 +4469,13 @@
         <v>0</v>
       </c>
       <c r="J105">
-        <v>10</v>
+        <v>1</v>
       </c>
       <c r="K105" s="5">
         <v>1</v>
       </c>
       <c r="L105" t="s">
-        <v>13</v>
+        <v>14</v>
       </c>
     </row>
     <row r="106" spans="1:12" x14ac:dyDescent="0.3">
@@ -4483,22 +4483,22 @@
         <v>11</v>
       </c>
       <c r="B106" s="5">
-        <v>69.096907979055743</v>
+        <v>386.35177477371423</v>
       </c>
       <c r="C106" s="5">
-        <v>39.917677031014328</v>
+        <v>29.05559274562205</v>
       </c>
       <c r="D106" s="5">
-        <v>29.9149219981168</v>
+        <v>5.3658871312446017</v>
       </c>
       <c r="E106" s="5">
-        <v>23.37880887850692</v>
+        <v>3.8406923423824151</v>
       </c>
       <c r="F106" s="5">
-        <v>15.6194951554734</v>
+        <v>7.1396431976428314</v>
       </c>
       <c r="G106">
-        <v>177.92781104216721</v>
+        <v>431.75359019060608</v>
       </c>
       <c r="H106">
         <v>0.25</v>
@@ -4507,13 +4507,13 @@
         <v>0</v>
       </c>
       <c r="J106">
-        <v>15</v>
+        <v>12</v>
       </c>
       <c r="K106" s="5">
         <v>1</v>
       </c>
       <c r="L106" t="s">
-        <v>13</v>
+        <v>14</v>
       </c>
     </row>
     <row r="107" spans="1:12" x14ac:dyDescent="0.3">
@@ -4521,22 +4521,22 @@
         <v>11</v>
       </c>
       <c r="B107" s="5">
-        <v>479.67165283534843</v>
+        <v>222.23501733900639</v>
       </c>
       <c r="C107" s="5">
-        <v>121.9284142391213</v>
+        <v>90.223324008942996</v>
       </c>
       <c r="D107" s="5">
-        <v>14.75300284835153</v>
+        <v>18.703023821647321</v>
       </c>
       <c r="E107" s="5">
-        <v>11.64375684886584</v>
+        <v>30.298302245199238</v>
       </c>
       <c r="F107" s="5">
-        <v>16.971855037057459</v>
+        <v>97.961006027960281</v>
       </c>
       <c r="G107">
-        <v>644.96868180874435</v>
+        <v>459.42067344275631</v>
       </c>
       <c r="H107">
         <v>0.25</v>
@@ -4545,7 +4545,7 @@
         <v>0</v>
       </c>
       <c r="J107">
-        <v>16</v>
+        <v>27</v>
       </c>
       <c r="K107" s="5">
         <v>1</v>
@@ -4559,22 +4559,22 @@
         <v>11</v>
       </c>
       <c r="B108" s="5">
-        <v>155.91106923942311</v>
+        <v>388.66745586075263</v>
       </c>
       <c r="C108" s="5">
-        <v>22.721152612083639</v>
+        <v>60.855082362266202</v>
       </c>
       <c r="D108" s="5">
-        <v>9.0241563728842351</v>
+        <v>9.6229349145585914</v>
       </c>
       <c r="E108" s="5">
-        <v>17.298216425161431</v>
+        <v>6.3693434016881314</v>
       </c>
       <c r="F108" s="5">
-        <v>18.09238485321746</v>
+        <v>8.315879234178654</v>
       </c>
       <c r="G108">
-        <v>223.04697950276989</v>
+        <v>473.83069577344418</v>
       </c>
       <c r="H108">
         <v>0.25</v>
@@ -4583,13 +4583,13 @@
         <v>0</v>
       </c>
       <c r="J108">
-        <v>9</v>
+        <v>14</v>
       </c>
       <c r="K108" s="5">
         <v>1</v>
       </c>
       <c r="L108" t="s">
-        <v>13</v>
+        <v>14</v>
       </c>
     </row>
     <row r="109" spans="1:12" x14ac:dyDescent="0.3">
@@ -4597,22 +4597,22 @@
         <v>11</v>
       </c>
       <c r="B109" s="5">
-        <v>180.34227721677499</v>
+        <v>333.8615175446555</v>
       </c>
       <c r="C109" s="5">
-        <v>50.435833767242492</v>
+        <v>120.0783762284607</v>
       </c>
       <c r="D109" s="5">
-        <v>10.925041689902971</v>
+        <v>19.864200183149759</v>
       </c>
       <c r="E109" s="5">
-        <v>15.65484903507499</v>
+        <v>7.4757221930909781</v>
       </c>
       <c r="F109" s="5">
-        <v>22.507188950098101</v>
+        <v>5.7355171899519863</v>
       </c>
       <c r="G109">
-        <v>279.86519065909351</v>
+        <v>487.015333339309</v>
       </c>
       <c r="H109">
         <v>0.25</v>
@@ -4621,7 +4621,7 @@
         <v>0</v>
       </c>
       <c r="J109">
-        <v>26</v>
+        <v>2</v>
       </c>
       <c r="K109" s="5">
         <v>1</v>
@@ -4635,22 +4635,22 @@
         <v>11</v>
       </c>
       <c r="B110" s="5">
-        <v>994.67505161405188</v>
+        <v>422.35039357089732</v>
       </c>
       <c r="C110" s="5">
-        <v>148.98432707156149</v>
+        <v>74.595142255641406</v>
       </c>
       <c r="D110" s="5">
-        <v>11.09252000517721</v>
+        <v>8.2428734003640809</v>
       </c>
       <c r="E110" s="5">
-        <v>13.439724753270379</v>
+        <v>2.430649949772234</v>
       </c>
       <c r="F110" s="5">
-        <v>22.790105853684508</v>
+        <v>1.718511084201938</v>
       </c>
       <c r="G110">
-        <v>1190.981729297745</v>
+        <v>509.33757026087699</v>
       </c>
       <c r="H110">
         <v>0.25</v>
@@ -4659,7 +4659,7 @@
         <v>0</v>
       </c>
       <c r="J110">
-        <v>22</v>
+        <v>6</v>
       </c>
       <c r="K110" s="5">
         <v>1</v>
@@ -4673,22 +4673,22 @@
         <v>11</v>
       </c>
       <c r="B111" s="5">
-        <v>627.7205850272544</v>
+        <v>417.64879586773259</v>
       </c>
       <c r="C111" s="5">
-        <v>99.914751540916967</v>
+        <v>33.34745511543656</v>
       </c>
       <c r="D111" s="5">
-        <v>12.54377027559436</v>
+        <v>15.356771979911141</v>
       </c>
       <c r="E111" s="5">
-        <v>22.76091251081516</v>
+        <v>19.36083742197712</v>
       </c>
       <c r="F111" s="5">
-        <v>23.75555456661554</v>
+        <v>31.190731876282229</v>
       </c>
       <c r="G111">
-        <v>786.69557392119634</v>
+        <v>516.90459226133953</v>
       </c>
       <c r="H111">
         <v>0.25</v>
@@ -4697,7 +4697,7 @@
         <v>0</v>
       </c>
       <c r="J111">
-        <v>3</v>
+        <v>5</v>
       </c>
       <c r="K111" s="5">
         <v>1</v>
@@ -4711,22 +4711,22 @@
         <v>11</v>
       </c>
       <c r="B112" s="5">
-        <v>417.64879586773259</v>
+        <v>463.50583848849971</v>
       </c>
       <c r="C112" s="5">
-        <v>33.34745511543656</v>
+        <v>45.137596218474513</v>
       </c>
       <c r="D112" s="5">
-        <v>15.356771979911141</v>
+        <v>9.0210192342320674</v>
       </c>
       <c r="E112" s="5">
-        <v>19.36083742197712</v>
+        <v>7.0349782901740747</v>
       </c>
       <c r="F112" s="5">
-        <v>31.190731876282229</v>
+        <v>7.8315127576279204</v>
       </c>
       <c r="G112">
-        <v>516.90459226133953</v>
+        <v>532.53094498900828</v>
       </c>
       <c r="H112">
         <v>0.25</v>
@@ -4735,7 +4735,7 @@
         <v>0</v>
       </c>
       <c r="J112">
-        <v>5</v>
+        <v>23</v>
       </c>
       <c r="K112" s="5">
         <v>1</v>
@@ -4749,22 +4749,22 @@
         <v>11</v>
       </c>
       <c r="B113" s="5">
-        <v>977.29572950041438</v>
+        <v>412.81570859962989</v>
       </c>
       <c r="C113" s="5">
-        <v>187.82535546221891</v>
+        <v>86.371888999385192</v>
       </c>
       <c r="D113" s="5">
-        <v>26.748309597565981</v>
+        <v>34.851202681725447</v>
       </c>
       <c r="E113" s="5">
-        <v>16.667328345494031</v>
+        <v>16.054005276993749</v>
       </c>
       <c r="F113" s="5">
-        <v>33.285069989378229</v>
+        <v>13.58234734369543</v>
       </c>
       <c r="G113">
-        <v>1241.8217928950719</v>
+        <v>563.67515290142978</v>
       </c>
       <c r="H113">
         <v>0.25</v>
@@ -4773,13 +4773,13 @@
         <v>0</v>
       </c>
       <c r="J113">
-        <v>11</v>
+        <v>20</v>
       </c>
       <c r="K113" s="5">
         <v>1</v>
       </c>
       <c r="L113" t="s">
-        <v>13</v>
+        <v>12</v>
       </c>
     </row>
     <row r="114" spans="1:12" x14ac:dyDescent="0.3">
@@ -4787,22 +4787,22 @@
         <v>11</v>
       </c>
       <c r="B114" s="5">
-        <v>1072.7071956029399</v>
+        <v>173.59262043287839</v>
       </c>
       <c r="C114" s="5">
-        <v>354.33805393793853</v>
+        <v>81.694650957548276</v>
       </c>
       <c r="D114" s="5">
-        <v>83.320264870311775</v>
+        <v>24.744646035595171</v>
       </c>
       <c r="E114" s="5">
-        <v>69.918809502325388</v>
+        <v>73.026197340934587</v>
       </c>
       <c r="F114" s="5">
-        <v>41.260104053456153</v>
+        <v>226.03737827693311</v>
       </c>
       <c r="G114">
-        <v>1621.5444279669721</v>
+        <v>579.09549304388952</v>
       </c>
       <c r="H114">
         <v>0.25</v>
@@ -4817,7 +4817,7 @@
         <v>1</v>
       </c>
       <c r="L114" t="s">
-        <v>13</v>
+        <v>14</v>
       </c>
     </row>
     <row r="115" spans="1:12" x14ac:dyDescent="0.3">
@@ -4825,22 +4825,22 @@
         <v>11</v>
       </c>
       <c r="B115" s="5">
-        <v>748.90138448283938</v>
+        <v>515.06701428511906</v>
       </c>
       <c r="C115" s="5">
-        <v>125.5045545948514</v>
+        <v>85.913943508041044</v>
       </c>
       <c r="D115" s="5">
-        <v>26.311904909039299</v>
+        <v>4.8440673854412823</v>
       </c>
       <c r="E115" s="5">
-        <v>39.211860669960899</v>
+        <v>3.0923737932912099</v>
       </c>
       <c r="F115" s="5">
-        <v>60.658475972541062</v>
+        <v>3.6454434861716809</v>
       </c>
       <c r="G115">
-        <v>1000.5881806292321</v>
+        <v>612.5628424580641</v>
       </c>
       <c r="H115">
         <v>0.25</v>
@@ -4849,13 +4849,13 @@
         <v>0</v>
       </c>
       <c r="J115">
-        <v>18</v>
+        <v>28</v>
       </c>
       <c r="K115" s="5">
         <v>1</v>
       </c>
       <c r="L115" t="s">
-        <v>13</v>
+        <v>14</v>
       </c>
     </row>
     <row r="116" spans="1:12" x14ac:dyDescent="0.3">
@@ -4863,22 +4863,22 @@
         <v>11</v>
       </c>
       <c r="B116" s="5">
-        <v>222.23501733900639</v>
+        <v>479.67165283534843</v>
       </c>
       <c r="C116" s="5">
-        <v>90.223324008942996</v>
+        <v>121.9284142391213</v>
       </c>
       <c r="D116" s="5">
-        <v>18.703023821647321</v>
+        <v>14.75300284835153</v>
       </c>
       <c r="E116" s="5">
-        <v>30.298302245199238</v>
+        <v>11.64375684886584</v>
       </c>
       <c r="F116" s="5">
-        <v>97.961006027960281</v>
+        <v>16.971855037057459</v>
       </c>
       <c r="G116">
-        <v>459.42067344275631</v>
+        <v>644.96868180874435</v>
       </c>
       <c r="H116">
         <v>0.25</v>
@@ -4887,7 +4887,7 @@
         <v>0</v>
       </c>
       <c r="J116">
-        <v>27</v>
+        <v>16</v>
       </c>
       <c r="K116" s="5">
         <v>1</v>
@@ -4901,22 +4901,22 @@
         <v>11</v>
       </c>
       <c r="B117" s="5">
-        <v>466.97109441233391</v>
+        <v>593.20998399910127</v>
       </c>
       <c r="C117" s="5">
-        <v>144.79531233395889</v>
+        <v>136.277733741167</v>
       </c>
       <c r="D117" s="5">
-        <v>50.658901080712248</v>
+        <v>22.619172897935972</v>
       </c>
       <c r="E117" s="5">
-        <v>112.694448265297</v>
+        <v>8.2210425439719437</v>
       </c>
       <c r="F117" s="5">
-        <v>266.23763390221762</v>
+        <v>6.7939871162561438</v>
       </c>
       <c r="G117">
-        <v>1041.35738999452</v>
+        <v>767.12192029843231</v>
       </c>
       <c r="H117">
         <v>0.25</v>
@@ -4925,13 +4925,13 @@
         <v>0</v>
       </c>
       <c r="J117">
+        <v>7</v>
+      </c>
+      <c r="K117" s="5">
+        <v>1</v>
+      </c>
+      <c r="L117" t="s">
         <v>14</v>
-      </c>
-      <c r="K117" s="5">
-        <v>1</v>
-      </c>
-      <c r="L117" t="s">
-        <v>13</v>
       </c>
     </row>
     <row r="118" spans="1:12" x14ac:dyDescent="0.3">
@@ -4939,22 +4939,22 @@
         <v>11</v>
       </c>
       <c r="B118" s="5">
-        <v>9902.9225900315523</v>
+        <v>627.7205850272544</v>
       </c>
       <c r="C118" s="5">
-        <v>2256.015777372475</v>
+        <v>99.914751540916967</v>
       </c>
       <c r="D118" s="5">
-        <v>1477.2743027472859</v>
+        <v>12.54377027559436</v>
       </c>
       <c r="E118" s="5">
-        <v>1294.504544771288</v>
+        <v>22.76091251081516</v>
       </c>
       <c r="F118" s="5">
-        <v>1060.796531350094</v>
+        <v>23.75555456661554</v>
       </c>
       <c r="G118">
-        <v>15991.5137462727</v>
+        <v>786.69557392119634</v>
       </c>
       <c r="H118">
         <v>0.25</v>
@@ -4963,7 +4963,7 @@
         <v>0</v>
       </c>
       <c r="J118">
-        <v>25</v>
+        <v>3</v>
       </c>
       <c r="K118" s="5">
         <v>1</v>
@@ -4977,22 +4977,22 @@
         <v>11</v>
       </c>
       <c r="B119" s="5">
-        <v>515.06701428511906</v>
+        <v>631.55466742842975</v>
       </c>
       <c r="C119" s="5">
-        <v>85.913943508041044</v>
+        <v>187.05565897017431</v>
       </c>
       <c r="D119" s="5">
-        <v>4.8440673854412823</v>
+        <v>26.98967084467197</v>
       </c>
       <c r="E119" s="5">
-        <v>3.0923737932912099</v>
+        <v>11.74872391524271</v>
       </c>
       <c r="F119" s="5">
-        <v>3.6454434861716809</v>
+        <v>5.7238606502441636</v>
       </c>
       <c r="G119">
-        <v>612.5628424580641</v>
+        <v>863.07258180876272</v>
       </c>
       <c r="H119">
         <v>0.25</v>
@@ -5001,7 +5001,7 @@
         <v>0</v>
       </c>
       <c r="J119">
-        <v>28</v>
+        <v>18</v>
       </c>
       <c r="K119" s="5">
         <v>1</v>
@@ -5015,22 +5015,22 @@
         <v>11</v>
       </c>
       <c r="B120" s="5">
-        <v>58.426053720720112</v>
+        <v>735.89465957104562</v>
       </c>
       <c r="C120" s="5">
-        <v>15.8892468291016</v>
+        <v>130.32923965232069</v>
       </c>
       <c r="D120" s="5">
-        <v>4.6824609993926174</v>
+        <v>16.214145739347241</v>
       </c>
       <c r="E120" s="5">
-        <v>5.0021042196845817</v>
+        <v>4.9688310798218849</v>
       </c>
       <c r="F120" s="5">
-        <v>4.4065556214765476</v>
+        <v>4.9461946315322196</v>
       </c>
       <c r="G120">
-        <v>88.406421390375456</v>
+        <v>892.35307067406802</v>
       </c>
       <c r="H120">
         <v>0.25</v>
@@ -5039,13 +5039,13 @@
         <v>0</v>
       </c>
       <c r="J120">
-        <v>10</v>
+        <v>20</v>
       </c>
       <c r="K120" s="5">
         <v>1</v>
       </c>
       <c r="L120" t="s">
-        <v>14</v>
+        <v>13</v>
       </c>
     </row>
     <row r="121" spans="1:12" x14ac:dyDescent="0.3">
@@ -5053,22 +5053,22 @@
         <v>11</v>
       </c>
       <c r="B121" s="5">
-        <v>631.55466742842975</v>
+        <v>670.27723679236976</v>
       </c>
       <c r="C121" s="5">
-        <v>187.05565897017431</v>
+        <v>212.54208591580391</v>
       </c>
       <c r="D121" s="5">
-        <v>26.98967084467197</v>
+        <v>31.658095586502871</v>
       </c>
       <c r="E121" s="5">
-        <v>11.74872391524271</v>
+        <v>12.06389864321117</v>
       </c>
       <c r="F121" s="5">
-        <v>5.7238606502441636</v>
+        <v>6.2944229132268479</v>
       </c>
       <c r="G121">
-        <v>863.07258180876272</v>
+        <v>932.83573985111445</v>
       </c>
       <c r="H121">
         <v>0.25</v>
@@ -5077,13 +5077,13 @@
         <v>0</v>
       </c>
       <c r="J121">
-        <v>18</v>
+        <v>24</v>
       </c>
       <c r="K121" s="5">
         <v>1</v>
       </c>
       <c r="L121" t="s">
-        <v>14</v>
+        <v>13</v>
       </c>
     </row>
     <row r="122" spans="1:12" x14ac:dyDescent="0.3">
@@ -5091,22 +5091,22 @@
         <v>11</v>
       </c>
       <c r="B122" s="5">
-        <v>1652.3492510551059</v>
+        <v>748.90138448283938</v>
       </c>
       <c r="C122" s="5">
-        <v>237.47663050018721</v>
+        <v>125.5045545948514</v>
       </c>
       <c r="D122" s="5">
-        <v>18.27206458244947</v>
+        <v>26.311904909039299</v>
       </c>
       <c r="E122" s="5">
-        <v>6.0493879221373819</v>
+        <v>39.211860669960899</v>
       </c>
       <c r="F122" s="5">
-        <v>5.7620686274957489</v>
+        <v>60.658475972541062</v>
       </c>
       <c r="G122">
-        <v>1919.9094026873749</v>
+        <v>1000.5881806292321</v>
       </c>
       <c r="H122">
         <v>0.25</v>
@@ -5115,13 +5115,13 @@
         <v>0</v>
       </c>
       <c r="J122">
-        <v>26</v>
+        <v>18</v>
       </c>
       <c r="K122" s="5">
         <v>1</v>
       </c>
       <c r="L122" t="s">
-        <v>14</v>
+        <v>13</v>
       </c>
     </row>
     <row r="123" spans="1:12" x14ac:dyDescent="0.3">
@@ -5129,22 +5129,22 @@
         <v>11</v>
       </c>
       <c r="B123" s="5">
-        <v>271.18622475515838</v>
+        <v>760.37163596577739</v>
       </c>
       <c r="C123" s="5">
-        <v>70.822291292401076</v>
+        <v>213.2986211860989</v>
       </c>
       <c r="D123" s="5">
-        <v>11.40858849343107</v>
+        <v>24.714864375987169</v>
       </c>
       <c r="E123" s="5">
-        <v>7.3318808776159088</v>
+        <v>9.6742940154927499</v>
       </c>
       <c r="F123" s="5">
-        <v>5.8187051341433156</v>
+        <v>9.9368900807650213</v>
       </c>
       <c r="G123">
-        <v>366.56769055274981</v>
+        <v>1017.996305624121</v>
       </c>
       <c r="H123">
         <v>0.25</v>
@@ -5153,7 +5153,7 @@
         <v>0</v>
       </c>
       <c r="J123">
-        <v>1</v>
+        <v>16</v>
       </c>
       <c r="K123" s="5">
         <v>1</v>
@@ -5167,22 +5167,22 @@
         <v>11</v>
       </c>
       <c r="B124" s="5">
-        <v>1350.46807470777</v>
+        <v>466.97109441233391</v>
       </c>
       <c r="C124" s="5">
-        <v>344.86404457020831</v>
+        <v>144.79531233395889</v>
       </c>
       <c r="D124" s="5">
-        <v>31.66620500138427</v>
+        <v>50.658901080712248</v>
       </c>
       <c r="E124" s="5">
-        <v>6.367598185493148</v>
+        <v>112.694448265297</v>
       </c>
       <c r="F124" s="5">
-        <v>5.9353616796909607</v>
+        <v>266.23763390221762</v>
       </c>
       <c r="G124">
-        <v>1739.301284144547</v>
+        <v>1041.35738999452</v>
       </c>
       <c r="H124">
         <v>0.25</v>
@@ -5191,13 +5191,13 @@
         <v>0</v>
       </c>
       <c r="J124">
-        <v>8</v>
+        <v>14</v>
       </c>
       <c r="K124" s="5">
         <v>1</v>
       </c>
       <c r="L124" t="s">
-        <v>14</v>
+        <v>13</v>
       </c>
     </row>
     <row r="125" spans="1:12" x14ac:dyDescent="0.3">
@@ -5205,22 +5205,22 @@
         <v>11</v>
       </c>
       <c r="B125" s="5">
-        <v>175.781233405943</v>
+        <v>994.67505161405188</v>
       </c>
       <c r="C125" s="5">
-        <v>40.158964634924153</v>
+        <v>148.98432707156149</v>
       </c>
       <c r="D125" s="5">
-        <v>22.308672294144561</v>
+        <v>11.09252000517721</v>
       </c>
       <c r="E125" s="5">
-        <v>10.76209193863901</v>
+        <v>13.439724753270379</v>
       </c>
       <c r="F125" s="5">
-        <v>5.9910715502380629</v>
+        <v>22.790105853684508</v>
       </c>
       <c r="G125">
-        <v>255.00203382388881</v>
+        <v>1190.981729297745</v>
       </c>
       <c r="H125">
         <v>0.25</v>
@@ -5235,7 +5235,7 @@
         <v>1</v>
       </c>
       <c r="L125" t="s">
-        <v>14</v>
+        <v>13</v>
       </c>
     </row>
     <row r="126" spans="1:12" x14ac:dyDescent="0.3">
@@ -5243,22 +5243,22 @@
         <v>11</v>
       </c>
       <c r="B126" s="5">
-        <v>593.20998399910127</v>
+        <v>870.98240894076946</v>
       </c>
       <c r="C126" s="5">
-        <v>136.277733741167</v>
+        <v>185.23842611053789</v>
       </c>
       <c r="D126" s="5">
-        <v>22.619172897935972</v>
+        <v>38.898970947682088</v>
       </c>
       <c r="E126" s="5">
-        <v>8.2210425439719437</v>
+        <v>38.697278328420381</v>
       </c>
       <c r="F126" s="5">
-        <v>6.7939871162561438</v>
+        <v>91.228285547679405</v>
       </c>
       <c r="G126">
-        <v>767.12192029843231</v>
+        <v>1225.0453698750889</v>
       </c>
       <c r="H126">
         <v>0.25</v>
@@ -5267,7 +5267,7 @@
         <v>0</v>
       </c>
       <c r="J126">
-        <v>7</v>
+        <v>13</v>
       </c>
       <c r="K126" s="5">
         <v>1</v>
@@ -5281,22 +5281,22 @@
         <v>11</v>
       </c>
       <c r="B127" s="5">
-        <v>236.01823248765089</v>
+        <v>977.29572950041438</v>
       </c>
       <c r="C127" s="5">
-        <v>62.620732076036347</v>
+        <v>187.82535546221891</v>
       </c>
       <c r="D127" s="5">
-        <v>12.403812134817001</v>
+        <v>26.748309597565981</v>
       </c>
       <c r="E127" s="5">
-        <v>8.0935910702619651</v>
+        <v>16.667328345494031</v>
       </c>
       <c r="F127" s="5">
-        <v>6.8376966029906354</v>
+        <v>33.285069989378229</v>
       </c>
       <c r="G127">
-        <v>325.97406437175681</v>
+        <v>1241.8217928950719</v>
       </c>
       <c r="H127">
         <v>0.25</v>
@@ -5305,13 +5305,13 @@
         <v>0</v>
       </c>
       <c r="J127">
-        <v>2</v>
+        <v>11</v>
       </c>
       <c r="K127" s="5">
         <v>1</v>
       </c>
       <c r="L127" t="s">
-        <v>14</v>
+        <v>13</v>
       </c>
     </row>
     <row r="128" spans="1:12" x14ac:dyDescent="0.3">
@@ -5319,22 +5319,22 @@
         <v>11</v>
       </c>
       <c r="B128" s="5">
-        <v>386.35177477371423</v>
+        <v>1044.1766026471571</v>
       </c>
       <c r="C128" s="5">
-        <v>29.05559274562205</v>
+        <v>226.44958208961879</v>
       </c>
       <c r="D128" s="5">
-        <v>5.3658871312446017</v>
+        <v>25.172939745556189</v>
       </c>
       <c r="E128" s="5">
-        <v>3.8406923423824151</v>
+        <v>15.55145941404847</v>
       </c>
       <c r="F128" s="5">
-        <v>7.1396431976428314</v>
+        <v>16.613789895773191</v>
       </c>
       <c r="G128">
-        <v>431.75359019060608</v>
+        <v>1327.964373792154</v>
       </c>
       <c r="H128">
         <v>0.25</v>
@@ -5343,7 +5343,7 @@
         <v>0</v>
       </c>
       <c r="J128">
-        <v>12</v>
+        <v>4</v>
       </c>
       <c r="K128" s="5">
         <v>1</v>
@@ -5357,22 +5357,22 @@
         <v>11</v>
       </c>
       <c r="B129" s="5">
-        <v>219.61303233731019</v>
+        <v>1066.856479198789</v>
       </c>
       <c r="C129" s="5">
-        <v>23.858593790190159</v>
+        <v>226.76536324561229</v>
       </c>
       <c r="D129" s="5">
-        <v>10.49234138285861</v>
+        <v>23.3146558720833</v>
       </c>
       <c r="E129" s="5">
-        <v>8.0472295025197322</v>
+        <v>8.7664401816601014</v>
       </c>
       <c r="F129" s="5">
-        <v>8.1486817682676982</v>
+        <v>7.887240726240309</v>
       </c>
       <c r="G129">
-        <v>270.15987878114629</v>
+        <v>1333.5901792243851</v>
       </c>
       <c r="H129">
         <v>0.25</v>
@@ -5381,13 +5381,13 @@
         <v>0</v>
       </c>
       <c r="J129">
-        <v>24</v>
+        <v>12</v>
       </c>
       <c r="K129" s="5">
         <v>1</v>
       </c>
       <c r="L129" t="s">
-        <v>14</v>
+        <v>13</v>
       </c>
     </row>
     <row r="130" spans="1:12" x14ac:dyDescent="0.3">
@@ -5395,22 +5395,22 @@
         <v>11</v>
       </c>
       <c r="B130" s="5">
-        <v>388.66745586075263</v>
+        <v>1072.7071956029399</v>
       </c>
       <c r="C130" s="5">
-        <v>60.855082362266202</v>
+        <v>354.33805393793853</v>
       </c>
       <c r="D130" s="5">
-        <v>9.6229349145585914</v>
+        <v>83.320264870311775</v>
       </c>
       <c r="E130" s="5">
-        <v>6.3693434016881314</v>
+        <v>69.918809502325388</v>
       </c>
       <c r="F130" s="5">
-        <v>8.315879234178654</v>
+        <v>41.260104053456153</v>
       </c>
       <c r="G130">
-        <v>473.83069577344418</v>
+        <v>1621.5444279669721</v>
       </c>
       <c r="H130">
         <v>0.25</v>
@@ -5419,13 +5419,13 @@
         <v>0</v>
       </c>
       <c r="J130">
-        <v>14</v>
+        <v>21</v>
       </c>
       <c r="K130" s="5">
         <v>1</v>
       </c>
       <c r="L130" t="s">
-        <v>14</v>
+        <v>13</v>
       </c>
     </row>
     <row r="131" spans="1:12" x14ac:dyDescent="0.3">
@@ -5433,22 +5433,22 @@
         <v>11</v>
       </c>
       <c r="B131" s="5">
-        <v>760.37163596577739</v>
+        <v>1370.1817426209591</v>
       </c>
       <c r="C131" s="5">
-        <v>213.2986211860989</v>
+        <v>218.05916636377501</v>
       </c>
       <c r="D131" s="5">
-        <v>24.714864375987169</v>
+        <v>29.201195969286822</v>
       </c>
       <c r="E131" s="5">
-        <v>9.6742940154927499</v>
+        <v>14.703249658979191</v>
       </c>
       <c r="F131" s="5">
-        <v>9.9368900807650213</v>
+        <v>15.343224127233579</v>
       </c>
       <c r="G131">
-        <v>1017.996305624121</v>
+        <v>1647.4885787402341</v>
       </c>
       <c r="H131">
         <v>0.25</v>
@@ -5457,7 +5457,7 @@
         <v>0</v>
       </c>
       <c r="J131">
-        <v>16</v>
+        <v>3</v>
       </c>
       <c r="K131" s="5">
         <v>1</v>
@@ -5471,22 +5471,22 @@
         <v>11</v>
       </c>
       <c r="B132" s="5">
-        <v>1840.9622384503621</v>
+        <v>1350.46807470777</v>
       </c>
       <c r="C132" s="5">
-        <v>674.13191403666963</v>
+        <v>344.86404457020831</v>
       </c>
       <c r="D132" s="5">
-        <v>128.01925454530931</v>
+        <v>31.66620500138427</v>
       </c>
       <c r="E132" s="5">
-        <v>22.067502343091149</v>
+        <v>6.367598185493148</v>
       </c>
       <c r="F132" s="5">
-        <v>10.31308107823344</v>
+        <v>5.9353616796909607</v>
       </c>
       <c r="G132">
-        <v>2675.4939904536659</v>
+        <v>1739.301284144547</v>
       </c>
       <c r="H132">
         <v>0.25</v>
@@ -5495,7 +5495,7 @@
         <v>0</v>
       </c>
       <c r="J132">
-        <v>5</v>
+        <v>8</v>
       </c>
       <c r="K132" s="5">
         <v>1</v>
@@ -5509,22 +5509,22 @@
         <v>11</v>
       </c>
       <c r="B133" s="5">
-        <v>2237.3831392638399</v>
+        <v>1520.9175960978489</v>
       </c>
       <c r="C133" s="5">
-        <v>367.51325166236188</v>
+        <v>272.8235838463475</v>
       </c>
       <c r="D133" s="5">
-        <v>30.655152535681381</v>
+        <v>63.305818741960891</v>
       </c>
       <c r="E133" s="5">
-        <v>13.816940908205369</v>
+        <v>22.729075444948322</v>
       </c>
       <c r="F133" s="5">
-        <v>13.2172207735775</v>
+        <v>18.744673867766771</v>
       </c>
       <c r="G133">
-        <v>2662.585705143666</v>
+        <v>1898.520747998873</v>
       </c>
       <c r="H133">
         <v>0.25</v>
@@ -5533,7 +5533,7 @@
         <v>0</v>
       </c>
       <c r="J133">
-        <v>23</v>
+        <v>19</v>
       </c>
       <c r="K133" s="5">
         <v>1</v>
@@ -5547,22 +5547,22 @@
         <v>11</v>
       </c>
       <c r="B134" s="5">
-        <v>2694.177660206391</v>
+        <v>1652.3492510551059</v>
       </c>
       <c r="C134" s="5">
-        <v>559.34206444019605</v>
+        <v>237.47663050018721</v>
       </c>
       <c r="D134" s="5">
-        <v>93.378351106547967</v>
+        <v>18.27206458244947</v>
       </c>
       <c r="E134" s="5">
-        <v>31.52514178210162</v>
+        <v>6.0493879221373819</v>
       </c>
       <c r="F134" s="5">
-        <v>15.31216325251463</v>
+        <v>5.7620686274957489</v>
       </c>
       <c r="G134">
-        <v>3393.7353807877498</v>
+        <v>1919.9094026873749</v>
       </c>
       <c r="H134">
         <v>0.25</v>
@@ -5571,7 +5571,7 @@
         <v>0</v>
       </c>
       <c r="J134">
-        <v>27</v>
+        <v>26</v>
       </c>
       <c r="K134" s="5">
         <v>1</v>
@@ -5585,22 +5585,22 @@
         <v>11</v>
       </c>
       <c r="B135" s="5">
-        <v>1370.1817426209591</v>
+        <v>1612.912261157102</v>
       </c>
       <c r="C135" s="5">
-        <v>218.05916636377501</v>
+        <v>276.77622135061489</v>
       </c>
       <c r="D135" s="5">
-        <v>29.201195969286822</v>
+        <v>38.480361218740953</v>
       </c>
       <c r="E135" s="5">
-        <v>14.703249658979191</v>
+        <v>20.65108262682115</v>
       </c>
       <c r="F135" s="5">
-        <v>15.343224127233579</v>
+        <v>11.31451051742498</v>
       </c>
       <c r="G135">
-        <v>1647.4885787402341</v>
+        <v>1960.1344368707039</v>
       </c>
       <c r="H135">
         <v>0.25</v>
@@ -5609,13 +5609,13 @@
         <v>0</v>
       </c>
       <c r="J135">
-        <v>3</v>
+        <v>18</v>
       </c>
       <c r="K135" s="5">
         <v>1</v>
       </c>
       <c r="L135" t="s">
-        <v>14</v>
+        <v>12</v>
       </c>
     </row>
     <row r="136" spans="1:12" x14ac:dyDescent="0.3">
@@ -5623,22 +5623,22 @@
         <v>11</v>
       </c>
       <c r="B136" s="5">
-        <v>1044.1766026471571</v>
+        <v>1387.3558194004161</v>
       </c>
       <c r="C136" s="5">
-        <v>226.44958208961879</v>
+        <v>468.22500312342379</v>
       </c>
       <c r="D136" s="5">
-        <v>25.172939745556189</v>
+        <v>106.3344108006165</v>
       </c>
       <c r="E136" s="5">
-        <v>15.55145941404847</v>
+        <v>21.162692540401121</v>
       </c>
       <c r="F136" s="5">
-        <v>16.613789895773191</v>
+        <v>6.0526764913916757</v>
       </c>
       <c r="G136">
-        <v>1327.964373792154</v>
+        <v>1989.130602356249</v>
       </c>
       <c r="H136">
         <v>0.25</v>
@@ -5647,13 +5647,13 @@
         <v>0</v>
       </c>
       <c r="J136">
-        <v>4</v>
+        <v>13</v>
       </c>
       <c r="K136" s="5">
         <v>1</v>
       </c>
       <c r="L136" t="s">
-        <v>14</v>
+        <v>13</v>
       </c>
     </row>
     <row r="137" spans="1:12" x14ac:dyDescent="0.3">
@@ -5661,22 +5661,22 @@
         <v>11</v>
       </c>
       <c r="B137" s="5">
-        <v>1520.9175960978489</v>
+        <v>2237.3831392638399</v>
       </c>
       <c r="C137" s="5">
-        <v>272.8235838463475</v>
+        <v>367.51325166236188</v>
       </c>
       <c r="D137" s="5">
-        <v>63.305818741960891</v>
+        <v>30.655152535681381</v>
       </c>
       <c r="E137" s="5">
-        <v>22.729075444948322</v>
+        <v>13.816940908205369</v>
       </c>
       <c r="F137" s="5">
-        <v>18.744673867766771</v>
+        <v>13.2172207735775</v>
       </c>
       <c r="G137">
-        <v>1898.520747998873</v>
+        <v>2662.585705143666</v>
       </c>
       <c r="H137">
         <v>0.25</v>
@@ -5685,7 +5685,7 @@
         <v>0</v>
       </c>
       <c r="J137">
-        <v>19</v>
+        <v>23</v>
       </c>
       <c r="K137" s="5">
         <v>1</v>
@@ -5699,22 +5699,22 @@
         <v>11</v>
       </c>
       <c r="B138" s="5">
-        <v>2611.4766178867508</v>
+        <v>838.66091856915727</v>
       </c>
       <c r="C138" s="5">
-        <v>576.39488061312943</v>
+        <v>167.733996837376</v>
       </c>
       <c r="D138" s="5">
-        <v>108.48332899196591</v>
+        <v>111.0859861683286</v>
       </c>
       <c r="E138" s="5">
-        <v>47.163835567518682</v>
+        <v>445.22249124084362</v>
       </c>
       <c r="F138" s="5">
-        <v>29.013885582236298</v>
+        <v>1108.2122409600161</v>
       </c>
       <c r="G138">
-        <v>3372.5325486416009</v>
+        <v>2670.9156337757208</v>
       </c>
       <c r="H138">
         <v>0.25</v>
@@ -5723,7 +5723,7 @@
         <v>0</v>
       </c>
       <c r="J138">
-        <v>20</v>
+        <v>6</v>
       </c>
       <c r="K138" s="5">
         <v>1</v>
@@ -5737,22 +5737,22 @@
         <v>11</v>
       </c>
       <c r="B139" s="5">
-        <v>230.53107728285019</v>
+        <v>1840.9622384503621</v>
       </c>
       <c r="C139" s="5">
-        <v>52.045062858625478</v>
+        <v>674.13191403666963</v>
       </c>
       <c r="D139" s="5">
-        <v>11.106231766277631</v>
+        <v>128.01925454530931</v>
       </c>
       <c r="E139" s="5">
-        <v>22.579312418156551</v>
+        <v>22.067502343091149</v>
       </c>
       <c r="F139" s="5">
-        <v>37.290198446802243</v>
+        <v>10.31308107823344</v>
       </c>
       <c r="G139">
-        <v>353.55188277271208</v>
+        <v>2675.4939904536659</v>
       </c>
       <c r="H139">
         <v>0.25</v>
@@ -5761,7 +5761,7 @@
         <v>0</v>
       </c>
       <c r="J139">
-        <v>11</v>
+        <v>5</v>
       </c>
       <c r="K139" s="5">
         <v>1</v>
@@ -5775,22 +5775,22 @@
         <v>11</v>
       </c>
       <c r="B140" s="5">
-        <v>10032.87907971061</v>
+        <v>1739.2708084962001</v>
       </c>
       <c r="C140" s="5">
-        <v>1037.650550640328</v>
+        <v>616.05704421974622</v>
       </c>
       <c r="D140" s="5">
-        <v>74.883974075457175</v>
+        <v>199.12864855173751</v>
       </c>
       <c r="E140" s="5">
-        <v>20.432653814988761</v>
+        <v>242.54976817488651</v>
       </c>
       <c r="F140" s="5">
-        <v>37.323983197862859</v>
+        <v>204.03759150911981</v>
       </c>
       <c r="G140">
-        <v>11203.17024143924</v>
+        <v>3001.04386095169</v>
       </c>
       <c r="H140">
         <v>0.25</v>
@@ -5799,7 +5799,7 @@
         <v>0</v>
       </c>
       <c r="J140">
-        <v>17</v>
+        <v>15</v>
       </c>
       <c r="K140" s="5">
         <v>1</v>
@@ -5813,22 +5813,22 @@
         <v>11</v>
       </c>
       <c r="B141" s="5">
-        <v>870.98240894076946</v>
+        <v>2611.4766178867508</v>
       </c>
       <c r="C141" s="5">
-        <v>185.23842611053789</v>
+        <v>576.39488061312943</v>
       </c>
       <c r="D141" s="5">
-        <v>38.898970947682088</v>
+        <v>108.48332899196591</v>
       </c>
       <c r="E141" s="5">
-        <v>38.697278328420381</v>
+        <v>47.163835567518682</v>
       </c>
       <c r="F141" s="5">
-        <v>91.228285547679405</v>
+        <v>29.013885582236298</v>
       </c>
       <c r="G141">
-        <v>1225.0453698750889</v>
+        <v>3372.5325486416009</v>
       </c>
       <c r="H141">
         <v>0.25</v>
@@ -5837,7 +5837,7 @@
         <v>0</v>
       </c>
       <c r="J141">
-        <v>13</v>
+        <v>20</v>
       </c>
       <c r="K141" s="5">
         <v>1</v>
@@ -5851,22 +5851,22 @@
         <v>11</v>
       </c>
       <c r="B142" s="5">
-        <v>1739.2708084962001</v>
+        <v>2694.177660206391</v>
       </c>
       <c r="C142" s="5">
-        <v>616.05704421974622</v>
+        <v>559.34206444019605</v>
       </c>
       <c r="D142" s="5">
-        <v>199.12864855173751</v>
+        <v>93.378351106547967</v>
       </c>
       <c r="E142" s="5">
-        <v>242.54976817488651</v>
+        <v>31.52514178210162</v>
       </c>
       <c r="F142" s="5">
-        <v>204.03759150911981</v>
+        <v>15.31216325251463</v>
       </c>
       <c r="G142">
-        <v>3001.04386095169</v>
+        <v>3393.7353807877498</v>
       </c>
       <c r="H142">
         <v>0.25</v>
@@ -5875,7 +5875,7 @@
         <v>0</v>
       </c>
       <c r="J142">
-        <v>15</v>
+        <v>27</v>
       </c>
       <c r="K142" s="5">
         <v>1</v>
@@ -5889,22 +5889,22 @@
         <v>11</v>
       </c>
       <c r="B143" s="5">
-        <v>173.59262043287839</v>
+        <v>2496.6590028453202</v>
       </c>
       <c r="C143" s="5">
-        <v>81.694650957548276</v>
+        <v>318.50260017199241</v>
       </c>
       <c r="D143" s="5">
-        <v>24.744646035595171</v>
+        <v>139.6725839855888</v>
       </c>
       <c r="E143" s="5">
-        <v>73.026197340934587</v>
+        <v>127.61123794944361</v>
       </c>
       <c r="F143" s="5">
-        <v>226.03737827693311</v>
+        <v>859.06971898101665</v>
       </c>
       <c r="G143">
-        <v>579.09549304388952</v>
+        <v>3941.5151439333622</v>
       </c>
       <c r="H143">
         <v>0.25</v>
@@ -5913,7 +5913,7 @@
         <v>0</v>
       </c>
       <c r="J143">
-        <v>21</v>
+        <v>25</v>
       </c>
       <c r="K143" s="5">
         <v>1</v>
@@ -5927,22 +5927,22 @@
         <v>11</v>
       </c>
       <c r="B144" s="5">
-        <v>2496.6590028453202</v>
+        <v>10032.87907971061</v>
       </c>
       <c r="C144" s="5">
-        <v>318.50260017199241</v>
+        <v>1037.650550640328</v>
       </c>
       <c r="D144" s="5">
-        <v>139.6725839855888</v>
+        <v>74.883974075457175</v>
       </c>
       <c r="E144" s="5">
-        <v>127.61123794944361</v>
+        <v>20.432653814988761</v>
       </c>
       <c r="F144" s="5">
-        <v>859.06971898101665</v>
+        <v>37.323983197862859</v>
       </c>
       <c r="G144">
-        <v>3941.5151439333622</v>
+        <v>11203.17024143924</v>
       </c>
       <c r="H144">
         <v>0.25</v>
@@ -5951,7 +5951,7 @@
         <v>0</v>
       </c>
       <c r="J144">
-        <v>25</v>
+        <v>17</v>
       </c>
       <c r="K144" s="5">
         <v>1</v>
@@ -5965,22 +5965,22 @@
         <v>11</v>
       </c>
       <c r="B145" s="5">
-        <v>838.66091856915727</v>
+        <v>9902.9225900315523</v>
       </c>
       <c r="C145" s="5">
-        <v>167.733996837376</v>
+        <v>2256.015777372475</v>
       </c>
       <c r="D145" s="5">
-        <v>111.0859861683286</v>
+        <v>1477.2743027472859</v>
       </c>
       <c r="E145" s="5">
-        <v>445.22249124084362</v>
+        <v>1294.504544771288</v>
       </c>
       <c r="F145" s="5">
-        <v>1108.2122409600161</v>
+        <v>1060.796531350094</v>
       </c>
       <c r="G145">
-        <v>2670.9156337757208</v>
+        <v>15991.5137462727</v>
       </c>
       <c r="H145">
         <v>0.25</v>
@@ -5989,16 +5989,19 @@
         <v>0</v>
       </c>
       <c r="J145">
-        <v>6</v>
+        <v>25</v>
       </c>
       <c r="K145" s="5">
         <v>1</v>
       </c>
       <c r="L145" t="s">
-        <v>14</v>
+        <v>13</v>
       </c>
     </row>
   </sheetData>
+  <sortState xmlns:xlrd2="http://schemas.microsoft.com/office/spreadsheetml/2017/richdata2" ref="A2:L146">
+    <sortCondition ref="K2:K146"/>
+  </sortState>
   <pageMargins left="0.7" right="0.7" top="0.75" bottom="0.75" header="0.3" footer="0.3"/>
 </worksheet>
 </file>